--- a/results/datasetUniform_polytree25.xlsx
+++ b/results/datasetUniform_polytree25.xlsx
@@ -466,13 +466,13 @@
         <v>25</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5519999999999999</v>
+        <v>0.522</v>
       </c>
       <c r="E2" t="n">
-        <v>0.448</v>
+        <v>0.478</v>
       </c>
       <c r="F2" t="n">
-        <v>0.178680419921875</v>
+        <v>0.1919002532958984</v>
       </c>
     </row>
     <row r="3">
@@ -488,13 +488,13 @@
         <v>25</v>
       </c>
       <c r="D3" t="n">
-        <v>0.526</v>
+        <v>0.536</v>
       </c>
       <c r="E3" t="n">
-        <v>0.474</v>
+        <v>0.464</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2030797004699707</v>
+        <v>0.2037961483001709</v>
       </c>
     </row>
     <row r="4">
@@ -510,13 +510,13 @@
         <v>25</v>
       </c>
       <c r="D4" t="n">
-        <v>0.523</v>
+        <v>0.536</v>
       </c>
       <c r="E4" t="n">
-        <v>0.477</v>
+        <v>0.464</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2040858268737793</v>
+        <v>0.1968920230865479</v>
       </c>
     </row>
     <row r="5">
@@ -532,13 +532,13 @@
         <v>25</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5509999999999999</v>
+        <v>0.534</v>
       </c>
       <c r="E5" t="n">
-        <v>0.449</v>
+        <v>0.466</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1874198913574219</v>
+        <v>0.2006862163543701</v>
       </c>
     </row>
     <row r="6">
@@ -554,13 +554,13 @@
         <v>25</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5609999999999999</v>
+        <v>0.531</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4390000000000001</v>
+        <v>0.469</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2030751705169678</v>
+        <v>0.1924655437469482</v>
       </c>
     </row>
     <row r="7">
@@ -576,13 +576,13 @@
         <v>25</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5459999999999999</v>
+        <v>0.492</v>
       </c>
       <c r="E7" t="n">
-        <v>0.454</v>
+        <v>0.508</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2186994552612305</v>
+        <v>0.2148535251617432</v>
       </c>
     </row>
     <row r="8">
@@ -598,13 +598,13 @@
         <v>25</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5459999999999999</v>
+        <v>0.5389999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>0.454</v>
+        <v>0.461</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2116940021514893</v>
+        <v>0.2380149364471436</v>
       </c>
     </row>
     <row r="9">
@@ -620,13 +620,13 @@
         <v>25</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5679999999999999</v>
+        <v>0.53</v>
       </c>
       <c r="E9" t="n">
-        <v>0.4320000000000001</v>
+        <v>0.47</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2083714008331299</v>
+        <v>0.1911401748657227</v>
       </c>
     </row>
     <row r="10">
@@ -642,13 +642,13 @@
         <v>25</v>
       </c>
       <c r="D10" t="n">
-        <v>0.534</v>
+        <v>0.5429999999999999</v>
       </c>
       <c r="E10" t="n">
-        <v>0.466</v>
+        <v>0.457</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1906108856201172</v>
+        <v>0.2127754688262939</v>
       </c>
     </row>
     <row r="11">
@@ -664,13 +664,13 @@
         <v>25</v>
       </c>
       <c r="D11" t="n">
-        <v>0.574</v>
+        <v>0.5489999999999999</v>
       </c>
       <c r="E11" t="n">
-        <v>0.426</v>
+        <v>0.451</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2030768394470215</v>
+        <v>0.1946418285369873</v>
       </c>
     </row>
     <row r="12">
@@ -686,13 +686,13 @@
         <v>25</v>
       </c>
       <c r="D12" t="n">
-        <v>0.535</v>
+        <v>0.5419999999999999</v>
       </c>
       <c r="E12" t="n">
-        <v>0.465</v>
+        <v>0.458</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2030799388885498</v>
+        <v>0.1795752048492432</v>
       </c>
     </row>
     <row r="13">
@@ -708,13 +708,13 @@
         <v>25</v>
       </c>
       <c r="D13" t="n">
-        <v>0.536</v>
+        <v>0.522</v>
       </c>
       <c r="E13" t="n">
-        <v>0.464</v>
+        <v>0.478</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1874711513519287</v>
+        <v>0.2130801677703857</v>
       </c>
     </row>
     <row r="14">
@@ -730,13 +730,13 @@
         <v>25</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5669999999999999</v>
+        <v>0.535</v>
       </c>
       <c r="E14" t="n">
-        <v>0.4330000000000001</v>
+        <v>0.465</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1874537467956543</v>
+        <v>0.2322955131530762</v>
       </c>
     </row>
     <row r="15">
@@ -752,13 +752,13 @@
         <v>25</v>
       </c>
       <c r="D15" t="n">
-        <v>0.533</v>
+        <v>0.5499999999999999</v>
       </c>
       <c r="E15" t="n">
-        <v>0.467</v>
+        <v>0.45</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1874439716339111</v>
+        <v>0.2002670764923096</v>
       </c>
     </row>
     <row r="16">
@@ -774,13 +774,13 @@
         <v>25</v>
       </c>
       <c r="D16" t="n">
-        <v>0.534</v>
+        <v>0.519</v>
       </c>
       <c r="E16" t="n">
-        <v>0.466</v>
+        <v>0.481</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2030749320983887</v>
+        <v>0.1990847587585449</v>
       </c>
     </row>
     <row r="17">
@@ -796,13 +796,13 @@
         <v>25</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5609999999999999</v>
+        <v>0.538</v>
       </c>
       <c r="E17" t="n">
-        <v>0.4390000000000001</v>
+        <v>0.462</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1874547004699707</v>
+        <v>0.1986150741577148</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         <v>25</v>
       </c>
       <c r="D18" t="n">
-        <v>0.511</v>
+        <v>0.52</v>
       </c>
       <c r="E18" t="n">
-        <v>0.489</v>
+        <v>0.48</v>
       </c>
       <c r="F18" t="n">
-        <v>0.2030775547027588</v>
+        <v>0.190751314163208</v>
       </c>
     </row>
     <row r="19">
@@ -840,13 +840,13 @@
         <v>25</v>
       </c>
       <c r="D19" t="n">
-        <v>0.534</v>
+        <v>0.5429999999999999</v>
       </c>
       <c r="E19" t="n">
-        <v>0.466</v>
+        <v>0.457</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1874594688415527</v>
+        <v>0.1936287879943848</v>
       </c>
     </row>
     <row r="20">
@@ -862,13 +862,13 @@
         <v>25</v>
       </c>
       <c r="D20" t="n">
-        <v>0.5429999999999999</v>
+        <v>0.532</v>
       </c>
       <c r="E20" t="n">
-        <v>0.457</v>
+        <v>0.468</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1874659061431885</v>
+        <v>0.1933915615081787</v>
       </c>
     </row>
     <row r="21">
@@ -884,13 +884,13 @@
         <v>25</v>
       </c>
       <c r="D21" t="n">
-        <v>0.537</v>
+        <v>0.534</v>
       </c>
       <c r="E21" t="n">
-        <v>0.463</v>
+        <v>0.466</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2030651569366455</v>
+        <v>0.2006490230560303</v>
       </c>
     </row>
     <row r="22">
@@ -906,13 +906,13 @@
         <v>25</v>
       </c>
       <c r="D22" t="n">
-        <v>0.5499999999999999</v>
+        <v>0.5429999999999999</v>
       </c>
       <c r="E22" t="n">
-        <v>0.45</v>
+        <v>0.457</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1874535083770752</v>
+        <v>0.2006332874298096</v>
       </c>
     </row>
     <row r="23">
@@ -928,13 +928,13 @@
         <v>25</v>
       </c>
       <c r="D23" t="n">
-        <v>0.5489999999999999</v>
+        <v>0.5469999999999999</v>
       </c>
       <c r="E23" t="n">
-        <v>0.451</v>
+        <v>0.453</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1874582767486572</v>
+        <v>0.1843750476837158</v>
       </c>
     </row>
     <row r="24">
@@ -950,13 +950,13 @@
         <v>25</v>
       </c>
       <c r="D24" t="n">
-        <v>0.522</v>
+        <v>0.527</v>
       </c>
       <c r="E24" t="n">
-        <v>0.478</v>
+        <v>0.473</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2030858993530273</v>
+        <v>0.2052855491638184</v>
       </c>
     </row>
     <row r="25">
@@ -972,13 +972,13 @@
         <v>25</v>
       </c>
       <c r="D25" t="n">
-        <v>0.5519999999999999</v>
+        <v>0.5499999999999999</v>
       </c>
       <c r="E25" t="n">
-        <v>0.448</v>
+        <v>0.45</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1874494552612305</v>
+        <v>0.1947407722473145</v>
       </c>
     </row>
     <row r="26">
@@ -994,13 +994,13 @@
         <v>25</v>
       </c>
       <c r="D26" t="n">
-        <v>0.572</v>
+        <v>0.5469999999999999</v>
       </c>
       <c r="E26" t="n">
-        <v>0.428</v>
+        <v>0.453</v>
       </c>
       <c r="F26" t="n">
-        <v>0.2030727863311768</v>
+        <v>0.1931445598602295</v>
       </c>
     </row>
     <row r="27">
@@ -1016,13 +1016,13 @@
         <v>25</v>
       </c>
       <c r="D27" t="n">
-        <v>0.5801187011840971</v>
+        <v>0.5337995538665439</v>
       </c>
       <c r="E27" t="n">
-        <v>0.4198812988159027</v>
+        <v>0.4662004461334562</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1874575614929199</v>
+        <v>0.2022304534912109</v>
       </c>
     </row>
     <row r="28">
@@ -1038,13 +1038,13 @@
         <v>25</v>
       </c>
       <c r="D28" t="n">
-        <v>0.5517731998101991</v>
+        <v>0.5266803399343852</v>
       </c>
       <c r="E28" t="n">
-        <v>0.4482268001898009</v>
+        <v>0.4733196600656148</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2030758857727051</v>
+        <v>0.201357364654541</v>
       </c>
     </row>
     <row r="29">
@@ -1060,13 +1060,13 @@
         <v>25</v>
       </c>
       <c r="D29" t="n">
-        <v>0.5397847676664284</v>
+        <v>0.5272924043197567</v>
       </c>
       <c r="E29" t="n">
-        <v>0.4602152323335716</v>
+        <v>0.4727075956802433</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1874556541442871</v>
+        <v>0.1921083927154541</v>
       </c>
     </row>
     <row r="30">
@@ -1082,13 +1082,13 @@
         <v>25</v>
       </c>
       <c r="D30" t="n">
-        <v>0.5464925496910793</v>
+        <v>0.5783571557575219</v>
       </c>
       <c r="E30" t="n">
-        <v>0.4535074503089208</v>
+        <v>0.4216428442424782</v>
       </c>
       <c r="F30" t="n">
-        <v>0.2030682563781738</v>
+        <v>0.2022485733032227</v>
       </c>
     </row>
     <row r="31">
@@ -1104,13 +1104,13 @@
         <v>25</v>
       </c>
       <c r="D31" t="n">
-        <v>0.5481491959672672</v>
+        <v>0.5700446523557576</v>
       </c>
       <c r="E31" t="n">
-        <v>0.4518508040327328</v>
+        <v>0.4299553476442424</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1874620914459229</v>
+        <v>0.1927471160888672</v>
       </c>
     </row>
     <row r="32">
@@ -1126,13 +1126,13 @@
         <v>25</v>
       </c>
       <c r="D32" t="n">
-        <v>0.533046752020783</v>
+        <v>0.5780022705028603</v>
       </c>
       <c r="E32" t="n">
-        <v>0.4669532479792171</v>
+        <v>0.4219977294971397</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1874587535858154</v>
+        <v>0.2021141052246094</v>
       </c>
     </row>
     <row r="33">
@@ -1148,13 +1148,13 @@
         <v>25</v>
       </c>
       <c r="D33" t="n">
-        <v>0.5484775391350096</v>
+        <v>0.5194105287084945</v>
       </c>
       <c r="E33" t="n">
-        <v>0.4515224608649904</v>
+        <v>0.4805894712915055</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2030353546142578</v>
+        <v>0.2285583019256592</v>
       </c>
     </row>
     <row r="34">
@@ -1170,13 +1170,13 @@
         <v>25</v>
       </c>
       <c r="D34" t="n">
-        <v>0.5451546938388803</v>
+        <v>0.570307393565799</v>
       </c>
       <c r="E34" t="n">
-        <v>0.4548453061611197</v>
+        <v>0.4296926064342011</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1874866485595703</v>
+        <v>0.198106050491333</v>
       </c>
     </row>
     <row r="35">
@@ -1192,13 +1192,13 @@
         <v>25</v>
       </c>
       <c r="D35" t="n">
-        <v>0.5592893192675632</v>
+        <v>0.557441014272854</v>
       </c>
       <c r="E35" t="n">
-        <v>0.4407106807324368</v>
+        <v>0.4425589857271461</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1874704360961914</v>
+        <v>0.1852915287017822</v>
       </c>
     </row>
     <row r="36">
@@ -1214,13 +1214,13 @@
         <v>25</v>
       </c>
       <c r="D36" t="n">
-        <v>0.5340122463351796</v>
+        <v>0.5401697411152023</v>
       </c>
       <c r="E36" t="n">
-        <v>0.4659877536648203</v>
+        <v>0.4598302588847977</v>
       </c>
       <c r="F36" t="n">
-        <v>0.2030739784240723</v>
+        <v>0.1999428272247314</v>
       </c>
     </row>
     <row r="37">
@@ -1236,13 +1236,13 @@
         <v>25</v>
       </c>
       <c r="D37" t="n">
-        <v>0.5243500902081846</v>
+        <v>0.5212395516233322</v>
       </c>
       <c r="E37" t="n">
-        <v>0.4756499097918154</v>
+        <v>0.4787604483766677</v>
       </c>
       <c r="F37" t="n">
-        <v>0.187455415725708</v>
+        <v>0.2006590366363525</v>
       </c>
     </row>
     <row r="38">
@@ -1258,13 +1258,13 @@
         <v>25</v>
       </c>
       <c r="D38" t="n">
-        <v>0.5408207956020463</v>
+        <v>0.5528894984776344</v>
       </c>
       <c r="E38" t="n">
-        <v>0.4591792043979536</v>
+        <v>0.4471105015223656</v>
       </c>
       <c r="F38" t="n">
-        <v>0.2030775547027588</v>
+        <v>0.1941108703613281</v>
       </c>
     </row>
     <row r="39">
@@ -1280,13 +1280,13 @@
         <v>25</v>
       </c>
       <c r="D39" t="n">
-        <v>0.5142113938110396</v>
+        <v>0.5221232202111847</v>
       </c>
       <c r="E39" t="n">
-        <v>0.4857886061889605</v>
+        <v>0.4778767797888154</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1874144077301025</v>
+        <v>0.18454909324646</v>
       </c>
     </row>
     <row r="40">
@@ -1302,13 +1302,13 @@
         <v>25</v>
       </c>
       <c r="D40" t="n">
-        <v>0.5527741004840814</v>
+        <v>0.538456259942136</v>
       </c>
       <c r="E40" t="n">
-        <v>0.4472258995159186</v>
+        <v>0.461543740057864</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1874940395355225</v>
+        <v>0.2006487846374512</v>
       </c>
     </row>
     <row r="41">
@@ -1324,13 +1324,13 @@
         <v>25</v>
       </c>
       <c r="D41" t="n">
-        <v>0.5295702892807292</v>
+        <v>0.536416469274712</v>
       </c>
       <c r="E41" t="n">
-        <v>0.4704297107192708</v>
+        <v>0.463583530725288</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2030825614929199</v>
+        <v>0.2017338275909424</v>
       </c>
     </row>
     <row r="42">
@@ -1346,13 +1346,13 @@
         <v>25</v>
       </c>
       <c r="D42" t="n">
-        <v>0.5519739976935572</v>
+        <v>0.5535567173370879</v>
       </c>
       <c r="E42" t="n">
-        <v>0.4480260023064427</v>
+        <v>0.4464432826629121</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1874542236328125</v>
+        <v>0.1842691898345947</v>
       </c>
     </row>
     <row r="43">
@@ -1368,13 +1368,13 @@
         <v>25</v>
       </c>
       <c r="D43" t="n">
-        <v>0.5560338328230134</v>
+        <v>0.549367237040535</v>
       </c>
       <c r="E43" t="n">
-        <v>0.4439661671769867</v>
+        <v>0.450632762959465</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2030770778656006</v>
+        <v>0.2047679424285889</v>
       </c>
     </row>
     <row r="44">
@@ -1390,13 +1390,13 @@
         <v>25</v>
       </c>
       <c r="D44" t="n">
-        <v>0.5410595178108869</v>
+        <v>0.5500659830180424</v>
       </c>
       <c r="E44" t="n">
-        <v>0.4589404821891131</v>
+        <v>0.4499340169819576</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1874594688415527</v>
+        <v>0.1910231113433838</v>
       </c>
     </row>
     <row r="45">
@@ -1412,13 +1412,13 @@
         <v>25</v>
       </c>
       <c r="D45" t="n">
-        <v>0.5586831905313031</v>
+        <v>0.5401049889200262</v>
       </c>
       <c r="E45" t="n">
-        <v>0.4413168094686969</v>
+        <v>0.4598950110799739</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1874513626098633</v>
+        <v>0.1958343982696533</v>
       </c>
     </row>
     <row r="46">
@@ -1434,13 +1434,13 @@
         <v>25</v>
       </c>
       <c r="D46" t="n">
-        <v>0.5416351520452046</v>
+        <v>0.5418090719081803</v>
       </c>
       <c r="E46" t="n">
-        <v>0.4583648479547954</v>
+        <v>0.4581909280918198</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1874597072601318</v>
+        <v>0.1919043064117432</v>
       </c>
     </row>
     <row r="47">
@@ -1456,13 +1456,13 @@
         <v>25</v>
       </c>
       <c r="D47" t="n">
-        <v>0.5574525892352938</v>
+        <v>0.5128571653464413</v>
       </c>
       <c r="E47" t="n">
-        <v>0.4425474107647062</v>
+        <v>0.4871428346535587</v>
       </c>
       <c r="F47" t="n">
-        <v>0.2030737400054932</v>
+        <v>0.1932375431060791</v>
       </c>
     </row>
     <row r="48">
@@ -1478,13 +1478,13 @@
         <v>25</v>
       </c>
       <c r="D48" t="n">
-        <v>0.5514059622461036</v>
+        <v>0.5431059383679119</v>
       </c>
       <c r="E48" t="n">
-        <v>0.4485940377538964</v>
+        <v>0.4568940616320882</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1874556541442871</v>
+        <v>0.200263500213623</v>
       </c>
     </row>
     <row r="49">
@@ -1500,13 +1500,13 @@
         <v>25</v>
       </c>
       <c r="D49" t="n">
-        <v>0.5304193552425798</v>
+        <v>0.5092618153428033</v>
       </c>
       <c r="E49" t="n">
-        <v>0.4695806447574202</v>
+        <v>0.4907381846571967</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2030777931213379</v>
+        <v>0.1939239501953125</v>
       </c>
     </row>
     <row r="50">
@@ -1522,13 +1522,13 @@
         <v>25</v>
       </c>
       <c r="D50" t="n">
-        <v>0.5193561682492283</v>
+        <v>0.5536380000967204</v>
       </c>
       <c r="E50" t="n">
-        <v>0.4806438317507716</v>
+        <v>0.4463619999032797</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1874580383300781</v>
+        <v>0.1927125453948975</v>
       </c>
     </row>
     <row r="51">
@@ -1544,13 +1544,13 @@
         <v>25</v>
       </c>
       <c r="D51" t="n">
-        <v>0.5157397227942389</v>
+        <v>0.5486604391689933</v>
       </c>
       <c r="E51" t="n">
-        <v>0.4842602772057611</v>
+        <v>0.4513395608310066</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1874535083770752</v>
+        <v>0.1902227401733398</v>
       </c>
     </row>
     <row r="52">
@@ -1566,13 +1566,13 @@
         <v>25</v>
       </c>
       <c r="D52" t="n">
-        <v>0.511</v>
+        <v>0.581</v>
       </c>
       <c r="E52" t="n">
-        <v>0.489</v>
+        <v>0.419</v>
       </c>
       <c r="F52" t="n">
-        <v>0.3504588603973389</v>
+        <v>0.3567891120910645</v>
       </c>
     </row>
     <row r="53">
@@ -1588,13 +1588,13 @@
         <v>25</v>
       </c>
       <c r="D53" t="n">
-        <v>0.448</v>
+        <v>0.667</v>
       </c>
       <c r="E53" t="n">
-        <v>0.552</v>
+        <v>0.333</v>
       </c>
       <c r="F53" t="n">
-        <v>0.3436689376831055</v>
+        <v>0.3441064357757568</v>
       </c>
     </row>
     <row r="54">
@@ -1610,13 +1610,13 @@
         <v>25</v>
       </c>
       <c r="D54" t="n">
-        <v>0.618</v>
+        <v>0.521</v>
       </c>
       <c r="E54" t="n">
-        <v>0.382</v>
+        <v>0.479</v>
       </c>
       <c r="F54" t="n">
-        <v>0.6092319488525391</v>
+        <v>0.3423161506652832</v>
       </c>
     </row>
     <row r="55">
@@ -1632,13 +1632,13 @@
         <v>25</v>
       </c>
       <c r="D55" t="n">
-        <v>0.592</v>
+        <v>0.536</v>
       </c>
       <c r="E55" t="n">
-        <v>0.408</v>
+        <v>0.464</v>
       </c>
       <c r="F55" t="n">
-        <v>0.3749120235443115</v>
+        <v>0.3364553451538086</v>
       </c>
     </row>
     <row r="56">
@@ -1654,13 +1654,13 @@
         <v>25</v>
       </c>
       <c r="D56" t="n">
-        <v>0.594</v>
+        <v>0.654</v>
       </c>
       <c r="E56" t="n">
-        <v>0.406</v>
+        <v>0.346</v>
       </c>
       <c r="F56" t="n">
-        <v>0.3436684608459473</v>
+        <v>0.3339474201202393</v>
       </c>
     </row>
     <row r="57">
@@ -1676,13 +1676,13 @@
         <v>25</v>
       </c>
       <c r="D57" t="n">
-        <v>0.614</v>
+        <v>0.666</v>
       </c>
       <c r="E57" t="n">
-        <v>0.386</v>
+        <v>0.334</v>
       </c>
       <c r="F57" t="n">
-        <v>0.359290599822998</v>
+        <v>0.3414216041564941</v>
       </c>
     </row>
     <row r="58">
@@ -1698,13 +1698,13 @@
         <v>25</v>
       </c>
       <c r="D58" t="n">
-        <v>0.578</v>
+        <v>0.436</v>
       </c>
       <c r="E58" t="n">
-        <v>0.422</v>
+        <v>0.5639999999999999</v>
       </c>
       <c r="F58" t="n">
-        <v>0.3436789512634277</v>
+        <v>0.3443644046783447</v>
       </c>
     </row>
     <row r="59">
@@ -1720,13 +1720,13 @@
         <v>25</v>
       </c>
       <c r="D59" t="n">
-        <v>0.596</v>
+        <v>0.703</v>
       </c>
       <c r="E59" t="n">
-        <v>0.404</v>
+        <v>0.297</v>
       </c>
       <c r="F59" t="n">
-        <v>0.3436591625213623</v>
+        <v>0.3442015647888184</v>
       </c>
     </row>
     <row r="60">
@@ -1742,13 +1742,13 @@
         <v>25</v>
       </c>
       <c r="D60" t="n">
-        <v>0.473</v>
+        <v>0.611</v>
       </c>
       <c r="E60" t="n">
-        <v>0.527</v>
+        <v>0.389</v>
       </c>
       <c r="F60" t="n">
-        <v>0.3436689376831055</v>
+        <v>0.3364908695220947</v>
       </c>
     </row>
     <row r="61">
@@ -1764,13 +1764,13 @@
         <v>25</v>
       </c>
       <c r="D61" t="n">
-        <v>0.51</v>
+        <v>0.546</v>
       </c>
       <c r="E61" t="n">
-        <v>0.49</v>
+        <v>0.454</v>
       </c>
       <c r="F61" t="n">
-        <v>0.3280479907989502</v>
+        <v>0.3526725769042969</v>
       </c>
     </row>
     <row r="62">
@@ -1786,13 +1786,13 @@
         <v>25</v>
       </c>
       <c r="D62" t="n">
-        <v>0.756</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="E62" t="n">
-        <v>0.244</v>
+        <v>0.434</v>
       </c>
       <c r="F62" t="n">
-        <v>0.3436694145202637</v>
+        <v>0.3459572792053223</v>
       </c>
     </row>
     <row r="63">
@@ -1808,13 +1808,13 @@
         <v>25</v>
       </c>
       <c r="D63" t="n">
-        <v>0.483</v>
+        <v>0.638</v>
       </c>
       <c r="E63" t="n">
-        <v>0.517</v>
+        <v>0.362</v>
       </c>
       <c r="F63" t="n">
-        <v>0.3281021118164062</v>
+        <v>0.3350870609283447</v>
       </c>
     </row>
     <row r="64">
@@ -1830,13 +1830,13 @@
         <v>25</v>
       </c>
       <c r="D64" t="n">
-        <v>0.527</v>
+        <v>0.444</v>
       </c>
       <c r="E64" t="n">
-        <v>0.473</v>
+        <v>0.556</v>
       </c>
       <c r="F64" t="n">
-        <v>0.3436145782470703</v>
+        <v>0.3319594860076904</v>
       </c>
     </row>
     <row r="65">
@@ -1852,13 +1852,13 @@
         <v>25</v>
       </c>
       <c r="D65" t="n">
-        <v>0.601</v>
+        <v>0.62</v>
       </c>
       <c r="E65" t="n">
-        <v>0.399</v>
+        <v>0.38</v>
       </c>
       <c r="F65" t="n">
-        <v>0.328047513961792</v>
+        <v>0.344548225402832</v>
       </c>
     </row>
     <row r="66">
@@ -1874,13 +1874,13 @@
         <v>25</v>
       </c>
       <c r="D66" t="n">
-        <v>0.695</v>
+        <v>0.488</v>
       </c>
       <c r="E66" t="n">
-        <v>0.305</v>
+        <v>0.512</v>
       </c>
       <c r="F66" t="n">
-        <v>0.3436694145202637</v>
+        <v>0.3442509174346924</v>
       </c>
     </row>
     <row r="67">
@@ -1896,13 +1896,13 @@
         <v>25</v>
       </c>
       <c r="D67" t="n">
-        <v>0.462</v>
+        <v>0.576</v>
       </c>
       <c r="E67" t="n">
-        <v>0.538</v>
+        <v>0.424</v>
       </c>
       <c r="F67" t="n">
-        <v>0.3436689376831055</v>
+        <v>0.3340933322906494</v>
       </c>
     </row>
     <row r="68">
@@ -1918,13 +1918,13 @@
         <v>25</v>
       </c>
       <c r="D68" t="n">
-        <v>0.509</v>
+        <v>0.652</v>
       </c>
       <c r="E68" t="n">
-        <v>0.491</v>
+        <v>0.348</v>
       </c>
       <c r="F68" t="n">
-        <v>0.3280477523803711</v>
+        <v>0.3360435962677002</v>
       </c>
     </row>
     <row r="69">
@@ -1940,13 +1940,13 @@
         <v>25</v>
       </c>
       <c r="D69" t="n">
-        <v>0.457</v>
+        <v>0.368</v>
       </c>
       <c r="E69" t="n">
-        <v>0.543</v>
+        <v>0.632</v>
       </c>
       <c r="F69" t="n">
-        <v>0.3436691761016846</v>
+        <v>0.3341646194458008</v>
       </c>
     </row>
     <row r="70">
@@ -1962,13 +1962,13 @@
         <v>25</v>
       </c>
       <c r="D70" t="n">
-        <v>0.471</v>
+        <v>0.543</v>
       </c>
       <c r="E70" t="n">
-        <v>0.529</v>
+        <v>0.457</v>
       </c>
       <c r="F70" t="n">
-        <v>0.3437113761901855</v>
+        <v>0.3425030708312988</v>
       </c>
     </row>
     <row r="71">
@@ -1984,13 +1984,13 @@
         <v>25</v>
       </c>
       <c r="D71" t="n">
-        <v>0.534</v>
+        <v>0.64</v>
       </c>
       <c r="E71" t="n">
-        <v>0.466</v>
+        <v>0.36</v>
       </c>
       <c r="F71" t="n">
-        <v>0.3280057907104492</v>
+        <v>0.3318338394165039</v>
       </c>
     </row>
     <row r="72">
@@ -2006,13 +2006,13 @@
         <v>25</v>
       </c>
       <c r="D72" t="n">
-        <v>0.576</v>
+        <v>0.582</v>
       </c>
       <c r="E72" t="n">
-        <v>0.424</v>
+        <v>0.418</v>
       </c>
       <c r="F72" t="n">
-        <v>0.3436689376831055</v>
+        <v>0.3428504467010498</v>
       </c>
     </row>
     <row r="73">
@@ -2028,13 +2028,13 @@
         <v>25</v>
       </c>
       <c r="D73" t="n">
-        <v>0.617</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="E73" t="n">
-        <v>0.383</v>
+        <v>0.437</v>
       </c>
       <c r="F73" t="n">
-        <v>0.3280477523803711</v>
+        <v>0.3268663883209229</v>
       </c>
     </row>
     <row r="74">
@@ -2050,13 +2050,13 @@
         <v>25</v>
       </c>
       <c r="D74" t="n">
-        <v>0.435</v>
+        <v>0.572</v>
       </c>
       <c r="E74" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.428</v>
       </c>
       <c r="F74" t="n">
-        <v>0.3436689376831055</v>
+        <v>0.3445553779602051</v>
       </c>
     </row>
     <row r="75">
@@ -2072,13 +2072,13 @@
         <v>25</v>
       </c>
       <c r="D75" t="n">
-        <v>0.505</v>
+        <v>0.376</v>
       </c>
       <c r="E75" t="n">
-        <v>0.495</v>
+        <v>0.624</v>
       </c>
       <c r="F75" t="n">
-        <v>0.3437137603759766</v>
+        <v>0.3337142467498779</v>
       </c>
     </row>
     <row r="76">
@@ -2094,13 +2094,13 @@
         <v>25</v>
       </c>
       <c r="D76" t="n">
-        <v>0.576</v>
+        <v>0.704</v>
       </c>
       <c r="E76" t="n">
-        <v>0.424</v>
+        <v>0.296</v>
       </c>
       <c r="F76" t="n">
-        <v>0.3436245918273926</v>
+        <v>0.3431816101074219</v>
       </c>
     </row>
     <row r="77">
@@ -2116,13 +2116,13 @@
         <v>25</v>
       </c>
       <c r="D77" t="n">
-        <v>0.51</v>
+        <v>0.394</v>
       </c>
       <c r="E77" t="n">
-        <v>0.49</v>
+        <v>0.606</v>
       </c>
       <c r="F77" t="n">
-        <v>0.3436691761016846</v>
+        <v>0.3382725715637207</v>
       </c>
     </row>
     <row r="78">
@@ -2138,13 +2138,13 @@
         <v>25</v>
       </c>
       <c r="D78" t="n">
-        <v>0.583</v>
+        <v>0.492</v>
       </c>
       <c r="E78" t="n">
-        <v>0.417</v>
+        <v>0.508</v>
       </c>
       <c r="F78" t="n">
-        <v>0.3436691761016846</v>
+        <v>0.3436908721923828</v>
       </c>
     </row>
     <row r="79">
@@ -2160,13 +2160,13 @@
         <v>25</v>
       </c>
       <c r="D79" t="n">
-        <v>0.58</v>
+        <v>0.672</v>
       </c>
       <c r="E79" t="n">
-        <v>0.42</v>
+        <v>0.328</v>
       </c>
       <c r="F79" t="n">
-        <v>0.3436691761016846</v>
+        <v>0.333099365234375</v>
       </c>
     </row>
     <row r="80">
@@ -2182,13 +2182,13 @@
         <v>25</v>
       </c>
       <c r="D80" t="n">
-        <v>0.554</v>
+        <v>0.636</v>
       </c>
       <c r="E80" t="n">
-        <v>0.446</v>
+        <v>0.364</v>
       </c>
       <c r="F80" t="n">
-        <v>0.3436689376831055</v>
+        <v>0.3480608463287354</v>
       </c>
     </row>
     <row r="81">
@@ -2204,13 +2204,13 @@
         <v>25</v>
       </c>
       <c r="D81" t="n">
-        <v>0.613</v>
+        <v>0.42</v>
       </c>
       <c r="E81" t="n">
-        <v>0.387</v>
+        <v>0.58</v>
       </c>
       <c r="F81" t="n">
-        <v>0.3437116146087646</v>
+        <v>0.3453516960144043</v>
       </c>
     </row>
     <row r="82">
@@ -2226,13 +2226,13 @@
         <v>25</v>
       </c>
       <c r="D82" t="n">
-        <v>0.468</v>
+        <v>0.493</v>
       </c>
       <c r="E82" t="n">
-        <v>0.532</v>
+        <v>0.507</v>
       </c>
       <c r="F82" t="n">
-        <v>0.328005313873291</v>
+        <v>0.3426134586334229</v>
       </c>
     </row>
     <row r="83">
@@ -2248,13 +2248,13 @@
         <v>25</v>
       </c>
       <c r="D83" t="n">
-        <v>0.499</v>
+        <v>0.612</v>
       </c>
       <c r="E83" t="n">
-        <v>0.501</v>
+        <v>0.388</v>
       </c>
       <c r="F83" t="n">
-        <v>0.3437089920043945</v>
+        <v>0.3207471370697021</v>
       </c>
     </row>
     <row r="84">
@@ -2270,13 +2270,13 @@
         <v>25</v>
       </c>
       <c r="D84" t="n">
-        <v>0.45</v>
+        <v>0.415</v>
       </c>
       <c r="E84" t="n">
-        <v>0.55</v>
+        <v>0.585</v>
       </c>
       <c r="F84" t="n">
-        <v>0.3436291217803955</v>
+        <v>0.3542311191558838</v>
       </c>
     </row>
     <row r="85">
@@ -2292,13 +2292,13 @@
         <v>25</v>
       </c>
       <c r="D85" t="n">
-        <v>0.538</v>
+        <v>0.678</v>
       </c>
       <c r="E85" t="n">
-        <v>0.462</v>
+        <v>0.322</v>
       </c>
       <c r="F85" t="n">
-        <v>0.3436694145202637</v>
+        <v>0.3315122127532959</v>
       </c>
     </row>
     <row r="86">
@@ -2314,13 +2314,13 @@
         <v>25</v>
       </c>
       <c r="D86" t="n">
-        <v>0.449</v>
+        <v>0.639</v>
       </c>
       <c r="E86" t="n">
-        <v>0.551</v>
+        <v>0.361</v>
       </c>
       <c r="F86" t="n">
-        <v>0.3280477523803711</v>
+        <v>0.3413801193237305</v>
       </c>
     </row>
     <row r="87">
@@ -2336,13 +2336,13 @@
         <v>25</v>
       </c>
       <c r="D87" t="n">
-        <v>0.77</v>
+        <v>0.487</v>
       </c>
       <c r="E87" t="n">
-        <v>0.23</v>
+        <v>0.513</v>
       </c>
       <c r="F87" t="n">
-        <v>0.3436689376831055</v>
+        <v>0.3373188972473145</v>
       </c>
     </row>
     <row r="88">
@@ -2358,13 +2358,13 @@
         <v>25</v>
       </c>
       <c r="D88" t="n">
-        <v>0.527</v>
+        <v>0.572</v>
       </c>
       <c r="E88" t="n">
-        <v>0.473</v>
+        <v>0.428</v>
       </c>
       <c r="F88" t="n">
-        <v>0.3436691761016846</v>
+        <v>0.3444144725799561</v>
       </c>
     </row>
     <row r="89">
@@ -2380,13 +2380,13 @@
         <v>25</v>
       </c>
       <c r="D89" t="n">
-        <v>0.479</v>
+        <v>0.716</v>
       </c>
       <c r="E89" t="n">
-        <v>0.521</v>
+        <v>0.284</v>
       </c>
       <c r="F89" t="n">
-        <v>0.3436691761016846</v>
+        <v>0.3344225883483887</v>
       </c>
     </row>
     <row r="90">
@@ -2402,13 +2402,13 @@
         <v>25</v>
       </c>
       <c r="D90" t="n">
-        <v>0.575</v>
+        <v>0.51</v>
       </c>
       <c r="E90" t="n">
-        <v>0.425</v>
+        <v>0.49</v>
       </c>
       <c r="F90" t="n">
-        <v>0.3436689376831055</v>
+        <v>0.3265585899353027</v>
       </c>
     </row>
     <row r="91">
@@ -2424,13 +2424,13 @@
         <v>25</v>
       </c>
       <c r="D91" t="n">
-        <v>0.397</v>
+        <v>0.414</v>
       </c>
       <c r="E91" t="n">
-        <v>0.603</v>
+        <v>0.586</v>
       </c>
       <c r="F91" t="n">
-        <v>0.3436691761016846</v>
+        <v>0.3383948802947998</v>
       </c>
     </row>
     <row r="92">
@@ -2446,13 +2446,13 @@
         <v>25</v>
       </c>
       <c r="D92" t="n">
-        <v>0.659</v>
+        <v>0.571</v>
       </c>
       <c r="E92" t="n">
-        <v>0.341</v>
+        <v>0.429</v>
       </c>
       <c r="F92" t="n">
-        <v>0.3436691761016846</v>
+        <v>0.3372972011566162</v>
       </c>
     </row>
     <row r="93">
@@ -2468,13 +2468,13 @@
         <v>25</v>
       </c>
       <c r="D93" t="n">
-        <v>0.63</v>
+        <v>0.576</v>
       </c>
       <c r="E93" t="n">
-        <v>0.37</v>
+        <v>0.424</v>
       </c>
       <c r="F93" t="n">
-        <v>0.3436691761016846</v>
+        <v>0.344789981842041</v>
       </c>
     </row>
     <row r="94">
@@ -2490,13 +2490,13 @@
         <v>25</v>
       </c>
       <c r="D94" t="n">
-        <v>0.645</v>
+        <v>0.615</v>
       </c>
       <c r="E94" t="n">
-        <v>0.355</v>
+        <v>0.385</v>
       </c>
       <c r="F94" t="n">
-        <v>0.3436689376831055</v>
+        <v>0.3407199382781982</v>
       </c>
     </row>
     <row r="95">
@@ -2512,13 +2512,13 @@
         <v>25</v>
       </c>
       <c r="D95" t="n">
-        <v>0.574</v>
+        <v>0.458</v>
       </c>
       <c r="E95" t="n">
-        <v>0.426</v>
+        <v>0.542</v>
       </c>
       <c r="F95" t="n">
-        <v>0.3436691761016846</v>
+        <v>0.338442325592041</v>
       </c>
     </row>
     <row r="96">
@@ -2534,13 +2534,13 @@
         <v>25</v>
       </c>
       <c r="D96" t="n">
-        <v>0.534</v>
+        <v>0.716</v>
       </c>
       <c r="E96" t="n">
-        <v>0.466</v>
+        <v>0.284</v>
       </c>
       <c r="F96" t="n">
-        <v>0.3280477523803711</v>
+        <v>0.33203125</v>
       </c>
     </row>
     <row r="97">
@@ -2556,13 +2556,13 @@
         <v>25</v>
       </c>
       <c r="D97" t="n">
-        <v>0.6850000000000001</v>
+        <v>0.781</v>
       </c>
       <c r="E97" t="n">
-        <v>0.315</v>
+        <v>0.219</v>
       </c>
       <c r="F97" t="n">
-        <v>0.3436691761016846</v>
+        <v>0.3577256202697754</v>
       </c>
     </row>
     <row r="98">
@@ -2578,13 +2578,13 @@
         <v>25</v>
       </c>
       <c r="D98" t="n">
-        <v>0.662</v>
+        <v>0.621</v>
       </c>
       <c r="E98" t="n">
-        <v>0.338</v>
+        <v>0.379</v>
       </c>
       <c r="F98" t="n">
-        <v>0.3436849117279053</v>
+        <v>0.3443076610565186</v>
       </c>
     </row>
     <row r="99">
@@ -2600,13 +2600,13 @@
         <v>25</v>
       </c>
       <c r="D99" t="n">
-        <v>0.546</v>
+        <v>0.415</v>
       </c>
       <c r="E99" t="n">
-        <v>0.454</v>
+        <v>0.585</v>
       </c>
       <c r="F99" t="n">
-        <v>0.3436534404754639</v>
+        <v>0.3352522850036621</v>
       </c>
     </row>
     <row r="100">
@@ -2622,13 +2622,13 @@
         <v>25</v>
       </c>
       <c r="D100" t="n">
-        <v>0.514</v>
+        <v>0.553</v>
       </c>
       <c r="E100" t="n">
-        <v>0.486</v>
+        <v>0.447</v>
       </c>
       <c r="F100" t="n">
-        <v>0.3592903614044189</v>
+        <v>0.3449854850769043</v>
       </c>
     </row>
     <row r="101">
@@ -2644,13 +2644,13 @@
         <v>25</v>
       </c>
       <c r="D101" t="n">
-        <v>0.64</v>
+        <v>0.643</v>
       </c>
       <c r="E101" t="n">
-        <v>0.36</v>
+        <v>0.357</v>
       </c>
       <c r="F101" t="n">
-        <v>0.3280477523803711</v>
+        <v>0.342130184173584</v>
       </c>
     </row>
     <row r="102">
@@ -2666,13 +2666,13 @@
         <v>25</v>
       </c>
       <c r="D102" t="n">
-        <v>0.6223776223776224</v>
+        <v>0.5514485514485514</v>
       </c>
       <c r="E102" t="n">
-        <v>0.3776223776223776</v>
+        <v>0.4485514485514486</v>
       </c>
       <c r="F102" t="n">
-        <v>33.84375</v>
+        <v>67.203125</v>
       </c>
     </row>
     <row r="103">
@@ -2688,13 +2688,13 @@
         <v>25</v>
       </c>
       <c r="D103" t="n">
-        <v>0.6183816183816184</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="E103" t="n">
-        <v>0.3816183816183816</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="F103" t="n">
-        <v>33.296875</v>
+        <v>64.46875</v>
       </c>
     </row>
     <row r="104">
@@ -2710,13 +2710,13 @@
         <v>25</v>
       </c>
       <c r="D104" t="n">
-        <v>0.6113886113886113</v>
+        <v>0.5734265734265734</v>
       </c>
       <c r="E104" t="n">
-        <v>0.3886113886113886</v>
+        <v>0.4265734265734266</v>
       </c>
       <c r="F104" t="n">
-        <v>33.046875</v>
+        <v>66.359375</v>
       </c>
     </row>
     <row r="105">
@@ -2732,13 +2732,13 @@
         <v>25</v>
       </c>
       <c r="D105" t="n">
-        <v>0.5984015984015985</v>
+        <v>0.5784215784215784</v>
       </c>
       <c r="E105" t="n">
-        <v>0.4015984015984016</v>
+        <v>0.4215784215784216</v>
       </c>
       <c r="F105" t="n">
-        <v>34.5625</v>
+        <v>65.296875</v>
       </c>
     </row>
     <row r="106">
@@ -2754,13 +2754,13 @@
         <v>25</v>
       </c>
       <c r="D106" t="n">
-        <v>0.5984015984015985</v>
+        <v>0.5604395604395604</v>
       </c>
       <c r="E106" t="n">
-        <v>0.4015984015984016</v>
+        <v>0.4395604395604396</v>
       </c>
       <c r="F106" t="n">
-        <v>33.15625</v>
+        <v>63.46875</v>
       </c>
     </row>
     <row r="107">
@@ -2776,13 +2776,13 @@
         <v>25</v>
       </c>
       <c r="D107" t="n">
-        <v>0.6443556443556444</v>
+        <v>0.5424575424575424</v>
       </c>
       <c r="E107" t="n">
-        <v>0.3556443556443556</v>
+        <v>0.4575424575424575</v>
       </c>
       <c r="F107" t="n">
-        <v>33.734375</v>
+        <v>68.296875</v>
       </c>
     </row>
     <row r="108">
@@ -2798,13 +2798,13 @@
         <v>25</v>
       </c>
       <c r="D108" t="n">
-        <v>0.6233766233766234</v>
+        <v>0.4985014985014985</v>
       </c>
       <c r="E108" t="n">
-        <v>0.3766233766233766</v>
+        <v>0.5014985014985015</v>
       </c>
       <c r="F108" t="n">
-        <v>34.328125</v>
+        <v>65.84375</v>
       </c>
     </row>
     <row r="109">
@@ -2820,13 +2820,13 @@
         <v>25</v>
       </c>
       <c r="D109" t="n">
-        <v>0.6483516483516484</v>
+        <v>0.5774225774225774</v>
       </c>
       <c r="E109" t="n">
-        <v>0.3516483516483517</v>
+        <v>0.4225774225774226</v>
       </c>
       <c r="F109" t="n">
-        <v>33.1875</v>
+        <v>66.515625</v>
       </c>
     </row>
     <row r="110">
@@ -2842,13 +2842,13 @@
         <v>25</v>
       </c>
       <c r="D110" t="n">
-        <v>0.6383616383616384</v>
+        <v>0.5344655344655345</v>
       </c>
       <c r="E110" t="n">
-        <v>0.3616383616383617</v>
+        <v>0.4655344655344655</v>
       </c>
       <c r="F110" t="n">
-        <v>35.1875</v>
+        <v>66.296875</v>
       </c>
     </row>
     <row r="111">
@@ -2864,13 +2864,13 @@
         <v>25</v>
       </c>
       <c r="D111" t="n">
-        <v>0.6403596403596403</v>
+        <v>0.5394605394605395</v>
       </c>
       <c r="E111" t="n">
-        <v>0.3596403596403596</v>
+        <v>0.4605394605394605</v>
       </c>
       <c r="F111" t="n">
-        <v>34.53125</v>
+        <v>67.109375</v>
       </c>
     </row>
     <row r="112">
@@ -2886,13 +2886,13 @@
         <v>25</v>
       </c>
       <c r="D112" t="n">
-        <v>0.6243756243756243</v>
+        <v>0.5614385614385614</v>
       </c>
       <c r="E112" t="n">
-        <v>0.3756243756243756</v>
+        <v>0.4385614385614386</v>
       </c>
       <c r="F112" t="n">
-        <v>33.359375</v>
+        <v>63.078125</v>
       </c>
     </row>
     <row r="113">
@@ -2908,13 +2908,13 @@
         <v>25</v>
       </c>
       <c r="D113" t="n">
-        <v>0.6023976023976024</v>
+        <v>0.5364635364635365</v>
       </c>
       <c r="E113" t="n">
-        <v>0.3976023976023976</v>
+        <v>0.4635364635364635</v>
       </c>
       <c r="F113" t="n">
-        <v>34.828125</v>
+        <v>67.5</v>
       </c>
     </row>
     <row r="114">
@@ -2930,13 +2930,13 @@
         <v>25</v>
       </c>
       <c r="D114" t="n">
-        <v>0.6223776223776224</v>
+        <v>0.5294705294705294</v>
       </c>
       <c r="E114" t="n">
-        <v>0.3776223776223776</v>
+        <v>0.4705294705294705</v>
       </c>
       <c r="F114" t="n">
-        <v>33.734375</v>
+        <v>66.265625</v>
       </c>
     </row>
     <row r="115">
@@ -2952,13 +2952,13 @@
         <v>25</v>
       </c>
       <c r="D115" t="n">
-        <v>0.6283716283716284</v>
+        <v>0.5874125874125874</v>
       </c>
       <c r="E115" t="n">
-        <v>0.3716283716283716</v>
+        <v>0.4125874125874126</v>
       </c>
       <c r="F115" t="n">
-        <v>35.140625</v>
+        <v>62.8125</v>
       </c>
     </row>
     <row r="116">
@@ -2974,13 +2974,13 @@
         <v>25</v>
       </c>
       <c r="D116" t="n">
-        <v>0.6343656343656343</v>
+        <v>0.5364635364635365</v>
       </c>
       <c r="E116" t="n">
-        <v>0.3656343656343656</v>
+        <v>0.4635364635364635</v>
       </c>
       <c r="F116" t="n">
-        <v>34.359375</v>
+        <v>68.28125</v>
       </c>
     </row>
     <row r="117">
@@ -2996,13 +2996,13 @@
         <v>25</v>
       </c>
       <c r="D117" t="n">
-        <v>0.6403596403596403</v>
+        <v>0.5414585414585414</v>
       </c>
       <c r="E117" t="n">
-        <v>0.3596403596403596</v>
+        <v>0.4585414585414586</v>
       </c>
       <c r="F117" t="n">
-        <v>34.78125</v>
+        <v>66.546875</v>
       </c>
     </row>
     <row r="118">
@@ -3018,13 +3018,13 @@
         <v>25</v>
       </c>
       <c r="D118" t="n">
-        <v>0.6033966033966034</v>
+        <v>0.5124875124875125</v>
       </c>
       <c r="E118" t="n">
-        <v>0.3966033966033966</v>
+        <v>0.4875124875124875</v>
       </c>
       <c r="F118" t="n">
-        <v>35.15625</v>
+        <v>66.40625</v>
       </c>
     </row>
     <row r="119">
@@ -3040,13 +3040,13 @@
         <v>25</v>
       </c>
       <c r="D119" t="n">
-        <v>0.6173826173826173</v>
+        <v>0.5554445554445554</v>
       </c>
       <c r="E119" t="n">
-        <v>0.3826173826173826</v>
+        <v>0.4445554445554445</v>
       </c>
       <c r="F119" t="n">
-        <v>34.59375</v>
+        <v>65.625</v>
       </c>
     </row>
     <row r="120">
@@ -3062,13 +3062,13 @@
         <v>25</v>
       </c>
       <c r="D120" t="n">
-        <v>0.6263736263736264</v>
+        <v>0.5374625374625375</v>
       </c>
       <c r="E120" t="n">
-        <v>0.3736263736263736</v>
+        <v>0.4625374625374625</v>
       </c>
       <c r="F120" t="n">
-        <v>34.046875</v>
+        <v>67.828125</v>
       </c>
     </row>
     <row r="121">
@@ -3084,13 +3084,13 @@
         <v>25</v>
       </c>
       <c r="D121" t="n">
-        <v>0.6033966033966034</v>
+        <v>0.5204795204795205</v>
       </c>
       <c r="E121" t="n">
-        <v>0.3966033966033966</v>
+        <v>0.4795204795204795</v>
       </c>
       <c r="F121" t="n">
-        <v>34.78125</v>
+        <v>66.625</v>
       </c>
     </row>
     <row r="122">
@@ -3106,13 +3106,13 @@
         <v>25</v>
       </c>
       <c r="D122" t="n">
-        <v>0.5864135864135864</v>
+        <v>0.5874125874125874</v>
       </c>
       <c r="E122" t="n">
-        <v>0.4135864135864136</v>
+        <v>0.4125874125874126</v>
       </c>
       <c r="F122" t="n">
-        <v>33.578125</v>
+        <v>67.25</v>
       </c>
     </row>
     <row r="123">
@@ -3128,13 +3128,13 @@
         <v>25</v>
       </c>
       <c r="D123" t="n">
-        <v>0.6283716283716284</v>
+        <v>0.5354645354645354</v>
       </c>
       <c r="E123" t="n">
-        <v>0.3716283716283716</v>
+        <v>0.4645354645354645</v>
       </c>
       <c r="F123" t="n">
-        <v>33.71875</v>
+        <v>66.109375</v>
       </c>
     </row>
     <row r="124">
@@ -3150,13 +3150,13 @@
         <v>25</v>
       </c>
       <c r="D124" t="n">
-        <v>0.6003996003996004</v>
+        <v>0.5344655344655345</v>
       </c>
       <c r="E124" t="n">
-        <v>0.3996003996003996</v>
+        <v>0.4655344655344655</v>
       </c>
       <c r="F124" t="n">
-        <v>34.140625</v>
+        <v>64.59375</v>
       </c>
     </row>
     <row r="125">
@@ -3172,13 +3172,13 @@
         <v>25</v>
       </c>
       <c r="D125" t="n">
-        <v>0.6253746253746254</v>
+        <v>0.5654345654345654</v>
       </c>
       <c r="E125" t="n">
-        <v>0.3746253746253747</v>
+        <v>0.4345654345654346</v>
       </c>
       <c r="F125" t="n">
-        <v>34.84375</v>
+        <v>66.09375</v>
       </c>
     </row>
     <row r="126">
@@ -3194,13 +3194,13 @@
         <v>25</v>
       </c>
       <c r="D126" t="n">
-        <v>0.5944055944055944</v>
+        <v>0.5414585414585414</v>
       </c>
       <c r="E126" t="n">
-        <v>0.4055944055944056</v>
+        <v>0.4585414585414586</v>
       </c>
       <c r="F126" t="n">
-        <v>34.046875</v>
+        <v>66.71875</v>
       </c>
     </row>
     <row r="127">
@@ -3216,13 +3216,13 @@
         <v>25</v>
       </c>
       <c r="D127" t="n">
-        <v>0.6503496503496503</v>
+        <v>0.5204795204795205</v>
       </c>
       <c r="E127" t="n">
-        <v>0.3496503496503496</v>
+        <v>0.4795204795204795</v>
       </c>
       <c r="F127" t="n">
-        <v>34.5625</v>
+        <v>68.4375</v>
       </c>
     </row>
     <row r="128">
@@ -3238,13 +3238,13 @@
         <v>25</v>
       </c>
       <c r="D128" t="n">
-        <v>0.5904095904095904</v>
+        <v>0.5544455544455544</v>
       </c>
       <c r="E128" t="n">
-        <v>0.4095904095904096</v>
+        <v>0.4455544455544456</v>
       </c>
       <c r="F128" t="n">
-        <v>34.765625</v>
+        <v>67.84375</v>
       </c>
     </row>
     <row r="129">
@@ -3260,13 +3260,13 @@
         <v>25</v>
       </c>
       <c r="D129" t="n">
-        <v>0.5874125874125874</v>
+        <v>0.5754245754245755</v>
       </c>
       <c r="E129" t="n">
-        <v>0.4125874125874126</v>
+        <v>0.4245754245754246</v>
       </c>
       <c r="F129" t="n">
-        <v>36.5625</v>
+        <v>68.546875</v>
       </c>
     </row>
     <row r="130">
@@ -3282,13 +3282,13 @@
         <v>25</v>
       </c>
       <c r="D130" t="n">
-        <v>0.6303696303696303</v>
+        <v>0.5424575424575424</v>
       </c>
       <c r="E130" t="n">
-        <v>0.3696303696303696</v>
+        <v>0.4575424575424575</v>
       </c>
       <c r="F130" t="n">
-        <v>34.765625</v>
+        <v>66.28125</v>
       </c>
     </row>
     <row r="131">
@@ -3304,13 +3304,13 @@
         <v>25</v>
       </c>
       <c r="D131" t="n">
-        <v>0.6463536463536463</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="E131" t="n">
-        <v>0.3536463536463537</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="F131" t="n">
-        <v>36.53125</v>
+        <v>67.796875</v>
       </c>
     </row>
     <row r="132">
@@ -3326,13 +3326,13 @@
         <v>25</v>
       </c>
       <c r="D132" t="n">
-        <v>0.6183816183816184</v>
+        <v>0.5554445554445554</v>
       </c>
       <c r="E132" t="n">
-        <v>0.3816183816183816</v>
+        <v>0.4445554445554445</v>
       </c>
       <c r="F132" t="n">
-        <v>34.71875</v>
+        <v>66.609375</v>
       </c>
     </row>
     <row r="133">
@@ -3348,13 +3348,13 @@
         <v>25</v>
       </c>
       <c r="D133" t="n">
-        <v>0.6303696303696303</v>
+        <v>0.5284715284715285</v>
       </c>
       <c r="E133" t="n">
-        <v>0.3696303696303696</v>
+        <v>0.4715284715284715</v>
       </c>
       <c r="F133" t="n">
-        <v>34.078125</v>
+        <v>66.90625</v>
       </c>
     </row>
     <row r="134">
@@ -3370,13 +3370,13 @@
         <v>25</v>
       </c>
       <c r="D134" t="n">
-        <v>0.6543456543456544</v>
+        <v>0.5914085914085914</v>
       </c>
       <c r="E134" t="n">
-        <v>0.3456543456543457</v>
+        <v>0.4085914085914086</v>
       </c>
       <c r="F134" t="n">
-        <v>36.09375</v>
+        <v>67.625</v>
       </c>
     </row>
     <row r="135">
@@ -3392,13 +3392,13 @@
         <v>25</v>
       </c>
       <c r="D135" t="n">
-        <v>0.5994005994005994</v>
+        <v>0.5364635364635365</v>
       </c>
       <c r="E135" t="n">
-        <v>0.4005994005994006</v>
+        <v>0.4635364635364635</v>
       </c>
       <c r="F135" t="n">
-        <v>36.109375</v>
+        <v>67.40625</v>
       </c>
     </row>
     <row r="136">
@@ -3414,13 +3414,13 @@
         <v>25</v>
       </c>
       <c r="D136" t="n">
-        <v>0.6353646353646354</v>
+        <v>0.5464535464535465</v>
       </c>
       <c r="E136" t="n">
-        <v>0.3646353646353646</v>
+        <v>0.4535464535464536</v>
       </c>
       <c r="F136" t="n">
-        <v>34.265625</v>
+        <v>65.84375</v>
       </c>
     </row>
     <row r="137">
@@ -3436,13 +3436,13 @@
         <v>25</v>
       </c>
       <c r="D137" t="n">
-        <v>0.5944055944055944</v>
+        <v>0.5304695304695305</v>
       </c>
       <c r="E137" t="n">
-        <v>0.4055944055944056</v>
+        <v>0.4695304695304695</v>
       </c>
       <c r="F137" t="n">
-        <v>34.84375</v>
+        <v>67.40625</v>
       </c>
     </row>
     <row r="138">
@@ -3458,13 +3458,13 @@
         <v>25</v>
       </c>
       <c r="D138" t="n">
-        <v>0.6293706293706294</v>
+        <v>0.5594405594405595</v>
       </c>
       <c r="E138" t="n">
-        <v>0.3706293706293706</v>
+        <v>0.4405594405594406</v>
       </c>
       <c r="F138" t="n">
-        <v>34.078125</v>
+        <v>65.9375</v>
       </c>
     </row>
     <row r="139">
@@ -3480,13 +3480,13 @@
         <v>25</v>
       </c>
       <c r="D139" t="n">
-        <v>0.6093906093906094</v>
+        <v>0.5544455544455544</v>
       </c>
       <c r="E139" t="n">
-        <v>0.3906093906093906</v>
+        <v>0.4455544455544456</v>
       </c>
       <c r="F139" t="n">
-        <v>36.015625</v>
+        <v>66.71875</v>
       </c>
     </row>
     <row r="140">
@@ -3502,13 +3502,13 @@
         <v>25</v>
       </c>
       <c r="D140" t="n">
-        <v>0.6133866133866134</v>
+        <v>0.5524475524475524</v>
       </c>
       <c r="E140" t="n">
-        <v>0.3866133866133866</v>
+        <v>0.4475524475524476</v>
       </c>
       <c r="F140" t="n">
-        <v>34.984375</v>
+        <v>65.484375</v>
       </c>
     </row>
     <row r="141">
@@ -3524,13 +3524,13 @@
         <v>25</v>
       </c>
       <c r="D141" t="n">
-        <v>0.6513486513486514</v>
+        <v>0.5404595404595405</v>
       </c>
       <c r="E141" t="n">
-        <v>0.3486513486513487</v>
+        <v>0.4595404595404595</v>
       </c>
       <c r="F141" t="n">
-        <v>35.1875</v>
+        <v>71.125</v>
       </c>
     </row>
     <row r="142">
@@ -3546,13 +3546,13 @@
         <v>25</v>
       </c>
       <c r="D142" t="n">
-        <v>0.6413586413586414</v>
+        <v>0.5554445554445554</v>
       </c>
       <c r="E142" t="n">
-        <v>0.3586413586413587</v>
+        <v>0.4445554445554445</v>
       </c>
       <c r="F142" t="n">
-        <v>35.8125</v>
+        <v>67.109375</v>
       </c>
     </row>
     <row r="143">
@@ -3568,13 +3568,13 @@
         <v>25</v>
       </c>
       <c r="D143" t="n">
-        <v>0.6133866133866134</v>
+        <v>0.5394605394605395</v>
       </c>
       <c r="E143" t="n">
-        <v>0.3866133866133866</v>
+        <v>0.4605394605394605</v>
       </c>
       <c r="F143" t="n">
-        <v>35.4375</v>
+        <v>67.625</v>
       </c>
     </row>
     <row r="144">
@@ -3590,13 +3590,13 @@
         <v>25</v>
       </c>
       <c r="D144" t="n">
-        <v>0.6073926073926074</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="E144" t="n">
-        <v>0.3926073926073926</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="F144" t="n">
-        <v>34.671875</v>
+        <v>66.203125</v>
       </c>
     </row>
     <row r="145">
@@ -3612,13 +3612,13 @@
         <v>25</v>
       </c>
       <c r="D145" t="n">
-        <v>0.6113886113886113</v>
+        <v>0.5484515484515484</v>
       </c>
       <c r="E145" t="n">
-        <v>0.3886113886113886</v>
+        <v>0.4515484515484515</v>
       </c>
       <c r="F145" t="n">
-        <v>35.5625</v>
+        <v>67.796875</v>
       </c>
     </row>
     <row r="146">
@@ -3634,13 +3634,13 @@
         <v>25</v>
       </c>
       <c r="D146" t="n">
-        <v>0.6333666333666333</v>
+        <v>0.5854145854145855</v>
       </c>
       <c r="E146" t="n">
-        <v>0.3666333666333667</v>
+        <v>0.4145854145854146</v>
       </c>
       <c r="F146" t="n">
-        <v>34.6875</v>
+        <v>67.140625</v>
       </c>
     </row>
     <row r="147">
@@ -3656,13 +3656,13 @@
         <v>25</v>
       </c>
       <c r="D147" t="n">
-        <v>0.6323676323676324</v>
+        <v>0.5664335664335665</v>
       </c>
       <c r="E147" t="n">
-        <v>0.3676323676323676</v>
+        <v>0.4335664335664335</v>
       </c>
       <c r="F147" t="n">
-        <v>34.734375</v>
+        <v>65.671875</v>
       </c>
     </row>
     <row r="148">
@@ -3678,13 +3678,13 @@
         <v>25</v>
       </c>
       <c r="D148" t="n">
-        <v>0.6443556443556444</v>
+        <v>0.5574425574425574</v>
       </c>
       <c r="E148" t="n">
-        <v>0.3556443556443556</v>
+        <v>0.4425574425574426</v>
       </c>
       <c r="F148" t="n">
-        <v>36</v>
+        <v>65.046875</v>
       </c>
     </row>
     <row r="149">
@@ -3700,13 +3700,13 @@
         <v>25</v>
       </c>
       <c r="D149" t="n">
-        <v>0.6173826173826173</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="E149" t="n">
-        <v>0.3826173826173826</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="F149" t="n">
-        <v>34.171875</v>
+        <v>66.421875</v>
       </c>
     </row>
     <row r="150">
@@ -3722,13 +3722,13 @@
         <v>25</v>
       </c>
       <c r="D150" t="n">
-        <v>0.6363636363636364</v>
+        <v>0.5404595404595405</v>
       </c>
       <c r="E150" t="n">
-        <v>0.3636363636363636</v>
+        <v>0.4595404595404595</v>
       </c>
       <c r="F150" t="n">
-        <v>34.828125</v>
+        <v>66.453125</v>
       </c>
     </row>
     <row r="151">
@@ -3744,13 +3744,13 @@
         <v>25</v>
       </c>
       <c r="D151" t="n">
-        <v>0.6183816183816184</v>
+        <v>0.5484515484515484</v>
       </c>
       <c r="E151" t="n">
-        <v>0.3816183816183816</v>
+        <v>0.4515484515484515</v>
       </c>
       <c r="F151" t="n">
-        <v>33.46875</v>
+        <v>63.921875</v>
       </c>
     </row>
     <row r="152">
@@ -3766,13 +3766,13 @@
         <v>25</v>
       </c>
       <c r="D152" t="n">
-        <v>0.6373626373626373</v>
+        <v>0.5674325674325674</v>
       </c>
       <c r="E152" t="n">
-        <v>0.3626373626373626</v>
+        <v>0.4325674325674326</v>
       </c>
       <c r="F152" t="n">
-        <v>39.0625</v>
+        <v>75.046875</v>
       </c>
     </row>
     <row r="153">
@@ -3788,13 +3788,13 @@
         <v>25</v>
       </c>
       <c r="D153" t="n">
-        <v>0.6043956043956044</v>
+        <v>0.5724275724275725</v>
       </c>
       <c r="E153" t="n">
-        <v>0.3956043956043956</v>
+        <v>0.4275724275724276</v>
       </c>
       <c r="F153" t="n">
-        <v>40.125</v>
+        <v>76.375</v>
       </c>
     </row>
     <row r="154">
@@ -3810,13 +3810,13 @@
         <v>25</v>
       </c>
       <c r="D154" t="n">
-        <v>0.6213786213786214</v>
+        <v>0.5274725274725275</v>
       </c>
       <c r="E154" t="n">
-        <v>0.3786213786213786</v>
+        <v>0.4725274725274725</v>
       </c>
       <c r="F154" t="n">
-        <v>39.4375</v>
+        <v>75.875</v>
       </c>
     </row>
     <row r="155">
@@ -3832,13 +3832,13 @@
         <v>25</v>
       </c>
       <c r="D155" t="n">
-        <v>0.6153846153846154</v>
+        <v>0.5674325674325674</v>
       </c>
       <c r="E155" t="n">
-        <v>0.3846153846153846</v>
+        <v>0.4325674325674326</v>
       </c>
       <c r="F155" t="n">
-        <v>39.390625</v>
+        <v>75.140625</v>
       </c>
     </row>
     <row r="156">
@@ -3854,13 +3854,13 @@
         <v>25</v>
       </c>
       <c r="D156" t="n">
-        <v>0.6273726273726273</v>
+        <v>0.5614385614385614</v>
       </c>
       <c r="E156" t="n">
-        <v>0.3726273726273726</v>
+        <v>0.4385614385614386</v>
       </c>
       <c r="F156" t="n">
-        <v>39.40625</v>
+        <v>76.484375</v>
       </c>
     </row>
     <row r="157">
@@ -3876,13 +3876,13 @@
         <v>25</v>
       </c>
       <c r="D157" t="n">
-        <v>0.5884115884115884</v>
+        <v>0.5464535464535465</v>
       </c>
       <c r="E157" t="n">
-        <v>0.4115884115884116</v>
+        <v>0.4535464535464536</v>
       </c>
       <c r="F157" t="n">
-        <v>39.46875</v>
+        <v>76.0625</v>
       </c>
     </row>
     <row r="158">
@@ -3898,13 +3898,13 @@
         <v>25</v>
       </c>
       <c r="D158" t="n">
-        <v>0.6293706293706294</v>
+        <v>0.5534465534465535</v>
       </c>
       <c r="E158" t="n">
-        <v>0.3706293706293706</v>
+        <v>0.4465534465534465</v>
       </c>
       <c r="F158" t="n">
-        <v>38.296875</v>
+        <v>74.453125</v>
       </c>
     </row>
     <row r="159">
@@ -3920,13 +3920,13 @@
         <v>25</v>
       </c>
       <c r="D159" t="n">
-        <v>0.6003996003996004</v>
+        <v>0.5614385614385614</v>
       </c>
       <c r="E159" t="n">
-        <v>0.3996003996003996</v>
+        <v>0.4385614385614386</v>
       </c>
       <c r="F159" t="n">
-        <v>39.09375</v>
+        <v>75.09375</v>
       </c>
     </row>
     <row r="160">
@@ -3942,13 +3942,13 @@
         <v>25</v>
       </c>
       <c r="D160" t="n">
-        <v>0.6183816183816184</v>
+        <v>0.5424575424575424</v>
       </c>
       <c r="E160" t="n">
-        <v>0.3816183816183816</v>
+        <v>0.4575424575424575</v>
       </c>
       <c r="F160" t="n">
-        <v>38.859375</v>
+        <v>74.78125</v>
       </c>
     </row>
     <row r="161">
@@ -3964,13 +3964,13 @@
         <v>25</v>
       </c>
       <c r="D161" t="n">
-        <v>0.6323676323676324</v>
+        <v>0.5804195804195804</v>
       </c>
       <c r="E161" t="n">
-        <v>0.3676323676323676</v>
+        <v>0.4195804195804196</v>
       </c>
       <c r="F161" t="n">
-        <v>38.875</v>
+        <v>77</v>
       </c>
     </row>
     <row r="162">
@@ -3986,13 +3986,13 @@
         <v>25</v>
       </c>
       <c r="D162" t="n">
-        <v>0.6173826173826173</v>
+        <v>0.5314685314685315</v>
       </c>
       <c r="E162" t="n">
-        <v>0.3826173826173826</v>
+        <v>0.4685314685314685</v>
       </c>
       <c r="F162" t="n">
-        <v>39.234375</v>
+        <v>74.21875</v>
       </c>
     </row>
     <row r="163">
@@ -4008,13 +4008,13 @@
         <v>25</v>
       </c>
       <c r="D163" t="n">
-        <v>0.6143856143856143</v>
+        <v>0.5764235764235764</v>
       </c>
       <c r="E163" t="n">
-        <v>0.3856143856143856</v>
+        <v>0.4235764235764236</v>
       </c>
       <c r="F163" t="n">
-        <v>38.796875</v>
+        <v>74.28125</v>
       </c>
     </row>
     <row r="164">
@@ -4030,13 +4030,13 @@
         <v>25</v>
       </c>
       <c r="D164" t="n">
-        <v>0.6203796203796204</v>
+        <v>0.5364635364635365</v>
       </c>
       <c r="E164" t="n">
-        <v>0.3796203796203796</v>
+        <v>0.4635364635364635</v>
       </c>
       <c r="F164" t="n">
-        <v>39.234375</v>
+        <v>76.59375</v>
       </c>
     </row>
     <row r="165">
@@ -4052,13 +4052,13 @@
         <v>25</v>
       </c>
       <c r="D165" t="n">
-        <v>0.6063936063936064</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="E165" t="n">
-        <v>0.3936063936063936</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="F165" t="n">
-        <v>39.390625</v>
+        <v>75.671875</v>
       </c>
     </row>
     <row r="166">
@@ -4074,13 +4074,13 @@
         <v>25</v>
       </c>
       <c r="D166" t="n">
-        <v>0.6203796203796204</v>
+        <v>0.5494505494505495</v>
       </c>
       <c r="E166" t="n">
-        <v>0.3796203796203796</v>
+        <v>0.4505494505494506</v>
       </c>
       <c r="F166" t="n">
-        <v>40.265625</v>
+        <v>76.390625</v>
       </c>
     </row>
     <row r="167">
@@ -4096,13 +4096,13 @@
         <v>25</v>
       </c>
       <c r="D167" t="n">
-        <v>0.6213786213786214</v>
+        <v>0.5594405594405595</v>
       </c>
       <c r="E167" t="n">
-        <v>0.3786213786213786</v>
+        <v>0.4405594405594406</v>
       </c>
       <c r="F167" t="n">
-        <v>39.4375</v>
+        <v>75.578125</v>
       </c>
     </row>
     <row r="168">
@@ -4118,13 +4118,13 @@
         <v>25</v>
       </c>
       <c r="D168" t="n">
-        <v>0.6103896103896104</v>
+        <v>0.5334665334665335</v>
       </c>
       <c r="E168" t="n">
-        <v>0.3896103896103896</v>
+        <v>0.4665334665334666</v>
       </c>
       <c r="F168" t="n">
-        <v>38.9375</v>
+        <v>75.6875</v>
       </c>
     </row>
     <row r="169">
@@ -4140,13 +4140,13 @@
         <v>25</v>
       </c>
       <c r="D169" t="n">
-        <v>0.6363636363636364</v>
+        <v>0.5184815184815185</v>
       </c>
       <c r="E169" t="n">
-        <v>0.3636363636363636</v>
+        <v>0.4815184815184815</v>
       </c>
       <c r="F169" t="n">
-        <v>40.0625</v>
+        <v>75.65625</v>
       </c>
     </row>
     <row r="170">
@@ -4162,13 +4162,13 @@
         <v>25</v>
       </c>
       <c r="D170" t="n">
-        <v>0.6253746253746254</v>
+        <v>0.5804195804195804</v>
       </c>
       <c r="E170" t="n">
-        <v>0.3746253746253747</v>
+        <v>0.4195804195804196</v>
       </c>
       <c r="F170" t="n">
-        <v>38.390625</v>
+        <v>77.8125</v>
       </c>
     </row>
     <row r="171">
@@ -4184,13 +4184,13 @@
         <v>25</v>
       </c>
       <c r="D171" t="n">
-        <v>0.6113886113886113</v>
+        <v>0.5464535464535465</v>
       </c>
       <c r="E171" t="n">
-        <v>0.3886113886113886</v>
+        <v>0.4535464535464536</v>
       </c>
       <c r="F171" t="n">
-        <v>38.984375</v>
+        <v>76.5625</v>
       </c>
     </row>
     <row r="172">
@@ -4206,13 +4206,13 @@
         <v>25</v>
       </c>
       <c r="D172" t="n">
-        <v>0.6143856143856143</v>
+        <v>0.5624375624375625</v>
       </c>
       <c r="E172" t="n">
-        <v>0.3856143856143856</v>
+        <v>0.4375624375624376</v>
       </c>
       <c r="F172" t="n">
-        <v>38.71875</v>
+        <v>76.03125</v>
       </c>
     </row>
     <row r="173">
@@ -4228,13 +4228,13 @@
         <v>25</v>
       </c>
       <c r="D173" t="n">
-        <v>0.6183816183816184</v>
+        <v>0.5634365634365635</v>
       </c>
       <c r="E173" t="n">
-        <v>0.3816183816183816</v>
+        <v>0.4365634365634365</v>
       </c>
       <c r="F173" t="n">
-        <v>39.125</v>
+        <v>75.234375</v>
       </c>
     </row>
     <row r="174">
@@ -4250,13 +4250,13 @@
         <v>25</v>
       </c>
       <c r="D174" t="n">
-        <v>0.6083916083916084</v>
+        <v>0.5534465534465535</v>
       </c>
       <c r="E174" t="n">
-        <v>0.3916083916083916</v>
+        <v>0.4465534465534465</v>
       </c>
       <c r="F174" t="n">
-        <v>37.546875</v>
+        <v>74.390625</v>
       </c>
     </row>
     <row r="175">
@@ -4272,13 +4272,13 @@
         <v>25</v>
       </c>
       <c r="D175" t="n">
-        <v>0.6563436563436563</v>
+        <v>0.5424575424575424</v>
       </c>
       <c r="E175" t="n">
-        <v>0.3436563436563437</v>
+        <v>0.4575424575424575</v>
       </c>
       <c r="F175" t="n">
-        <v>37.890625</v>
+        <v>75.40625</v>
       </c>
     </row>
     <row r="176">
@@ -4294,13 +4294,13 @@
         <v>25</v>
       </c>
       <c r="D176" t="n">
-        <v>0.6003996003996004</v>
+        <v>0.5494505494505495</v>
       </c>
       <c r="E176" t="n">
-        <v>0.3996003996003996</v>
+        <v>0.4505494505494506</v>
       </c>
       <c r="F176" t="n">
-        <v>36.484375</v>
+        <v>73.671875</v>
       </c>
     </row>
     <row r="177">
@@ -4316,13 +4316,13 @@
         <v>25</v>
       </c>
       <c r="D177" t="n">
-        <v>0.6053946053946054</v>
+        <v>0.5504495504495505</v>
       </c>
       <c r="E177" t="n">
-        <v>0.3946053946053946</v>
+        <v>0.4495504495504495</v>
       </c>
       <c r="F177" t="n">
-        <v>39.6875</v>
+        <v>75.65625</v>
       </c>
     </row>
     <row r="178">
@@ -4338,13 +4338,13 @@
         <v>25</v>
       </c>
       <c r="D178" t="n">
-        <v>0.6313686313686314</v>
+        <v>0.5354645354645354</v>
       </c>
       <c r="E178" t="n">
-        <v>0.3686313686313686</v>
+        <v>0.4645354645354645</v>
       </c>
       <c r="F178" t="n">
-        <v>39.765625</v>
+        <v>76.78125</v>
       </c>
     </row>
     <row r="179">
@@ -4360,13 +4360,13 @@
         <v>25</v>
       </c>
       <c r="D179" t="n">
-        <v>0.6713286713286714</v>
+        <v>0.6023976023976024</v>
       </c>
       <c r="E179" t="n">
-        <v>0.3286713286713286</v>
+        <v>0.3976023976023976</v>
       </c>
       <c r="F179" t="n">
-        <v>38.953125</v>
+        <v>75.5625</v>
       </c>
     </row>
     <row r="180">
@@ -4382,13 +4382,13 @@
         <v>25</v>
       </c>
       <c r="D180" t="n">
-        <v>0.6393606393606394</v>
+        <v>0.5844155844155844</v>
       </c>
       <c r="E180" t="n">
-        <v>0.3606393606393606</v>
+        <v>0.4155844155844156</v>
       </c>
       <c r="F180" t="n">
-        <v>40.03125</v>
+        <v>77.1875</v>
       </c>
     </row>
     <row r="181">
@@ -4404,13 +4404,13 @@
         <v>25</v>
       </c>
       <c r="D181" t="n">
-        <v>0.6233766233766234</v>
+        <v>0.5524475524475524</v>
       </c>
       <c r="E181" t="n">
-        <v>0.3766233766233766</v>
+        <v>0.4475524475524476</v>
       </c>
       <c r="F181" t="n">
-        <v>38.796875</v>
+        <v>76.890625</v>
       </c>
     </row>
     <row r="182">
@@ -4426,13 +4426,13 @@
         <v>25</v>
       </c>
       <c r="D182" t="n">
-        <v>0.6093906093906094</v>
+        <v>0.5404595404595405</v>
       </c>
       <c r="E182" t="n">
-        <v>0.3906093906093906</v>
+        <v>0.4595404595404595</v>
       </c>
       <c r="F182" t="n">
-        <v>39.03125</v>
+        <v>77.125</v>
       </c>
     </row>
     <row r="183">
@@ -4448,13 +4448,13 @@
         <v>25</v>
       </c>
       <c r="D183" t="n">
-        <v>0.6223776223776224</v>
+        <v>0.5574425574425574</v>
       </c>
       <c r="E183" t="n">
-        <v>0.3776223776223776</v>
+        <v>0.4425574425574426</v>
       </c>
       <c r="F183" t="n">
-        <v>39.359375</v>
+        <v>77.140625</v>
       </c>
     </row>
     <row r="184">
@@ -4470,13 +4470,13 @@
         <v>25</v>
       </c>
       <c r="D184" t="n">
-        <v>0.6053946053946054</v>
+        <v>0.5514485514485514</v>
       </c>
       <c r="E184" t="n">
-        <v>0.3946053946053946</v>
+        <v>0.4485514485514486</v>
       </c>
       <c r="F184" t="n">
-        <v>39.15625</v>
+        <v>76.4375</v>
       </c>
     </row>
     <row r="185">
@@ -4492,13 +4492,13 @@
         <v>25</v>
       </c>
       <c r="D185" t="n">
-        <v>0.6373626373626373</v>
+        <v>0.5654345654345654</v>
       </c>
       <c r="E185" t="n">
-        <v>0.3626373626373626</v>
+        <v>0.4345654345654346</v>
       </c>
       <c r="F185" t="n">
-        <v>39.140625</v>
+        <v>77.125</v>
       </c>
     </row>
     <row r="186">
@@ -4514,13 +4514,13 @@
         <v>25</v>
       </c>
       <c r="D186" t="n">
-        <v>0.6003996003996004</v>
+        <v>0.5674325674325674</v>
       </c>
       <c r="E186" t="n">
-        <v>0.3996003996003996</v>
+        <v>0.4325674325674326</v>
       </c>
       <c r="F186" t="n">
-        <v>39.296875</v>
+        <v>76.3125</v>
       </c>
     </row>
     <row r="187">
@@ -4536,13 +4536,13 @@
         <v>25</v>
       </c>
       <c r="D187" t="n">
-        <v>0.6143856143856143</v>
+        <v>0.5514485514485514</v>
       </c>
       <c r="E187" t="n">
-        <v>0.3856143856143856</v>
+        <v>0.4485514485514486</v>
       </c>
       <c r="F187" t="n">
-        <v>40.4375</v>
+        <v>77.203125</v>
       </c>
     </row>
     <row r="188">
@@ -4558,13 +4558,13 @@
         <v>25</v>
       </c>
       <c r="D188" t="n">
-        <v>0.6413586413586414</v>
+        <v>0.5834165834165834</v>
       </c>
       <c r="E188" t="n">
-        <v>0.3586413586413587</v>
+        <v>0.4165834165834166</v>
       </c>
       <c r="F188" t="n">
-        <v>40.03125</v>
+        <v>76.90625</v>
       </c>
     </row>
     <row r="189">
@@ -4580,13 +4580,13 @@
         <v>25</v>
       </c>
       <c r="D189" t="n">
-        <v>0.6293706293706294</v>
+        <v>0.5664335664335665</v>
       </c>
       <c r="E189" t="n">
-        <v>0.3706293706293706</v>
+        <v>0.4335664335664335</v>
       </c>
       <c r="F189" t="n">
-        <v>38.90625</v>
+        <v>75.21875</v>
       </c>
     </row>
     <row r="190">
@@ -4602,13 +4602,13 @@
         <v>25</v>
       </c>
       <c r="D190" t="n">
-        <v>0.6363636363636364</v>
+        <v>0.5464535464535465</v>
       </c>
       <c r="E190" t="n">
-        <v>0.3636363636363636</v>
+        <v>0.4535464535464536</v>
       </c>
       <c r="F190" t="n">
-        <v>39.59375</v>
+        <v>74.765625</v>
       </c>
     </row>
     <row r="191">
@@ -4624,13 +4624,13 @@
         <v>25</v>
       </c>
       <c r="D191" t="n">
-        <v>0.6073926073926074</v>
+        <v>0.5364635364635365</v>
       </c>
       <c r="E191" t="n">
-        <v>0.3926073926073926</v>
+        <v>0.4635364635364635</v>
       </c>
       <c r="F191" t="n">
-        <v>38.796875</v>
+        <v>78.46875</v>
       </c>
     </row>
     <row r="192">
@@ -4646,13 +4646,13 @@
         <v>25</v>
       </c>
       <c r="D192" t="n">
-        <v>0.6293706293706294</v>
+        <v>0.5054945054945055</v>
       </c>
       <c r="E192" t="n">
-        <v>0.3706293706293706</v>
+        <v>0.4945054945054945</v>
       </c>
       <c r="F192" t="n">
-        <v>38.578125</v>
+        <v>75.796875</v>
       </c>
     </row>
     <row r="193">
@@ -4668,13 +4668,13 @@
         <v>25</v>
       </c>
       <c r="D193" t="n">
-        <v>0.6233766233766234</v>
+        <v>0.5584415584415584</v>
       </c>
       <c r="E193" t="n">
-        <v>0.3766233766233766</v>
+        <v>0.4415584415584415</v>
       </c>
       <c r="F193" t="n">
-        <v>39.359375</v>
+        <v>76.8125</v>
       </c>
     </row>
     <row r="194">
@@ -4690,13 +4690,13 @@
         <v>25</v>
       </c>
       <c r="D194" t="n">
-        <v>0.6233766233766234</v>
+        <v>0.5704295704295704</v>
       </c>
       <c r="E194" t="n">
-        <v>0.3766233766233766</v>
+        <v>0.4295704295704296</v>
       </c>
       <c r="F194" t="n">
-        <v>40.484375</v>
+        <v>76.640625</v>
       </c>
     </row>
     <row r="195">
@@ -4712,13 +4712,13 @@
         <v>25</v>
       </c>
       <c r="D195" t="n">
-        <v>0.5954045954045954</v>
+        <v>0.5594405594405595</v>
       </c>
       <c r="E195" t="n">
-        <v>0.4045954045954046</v>
+        <v>0.4405594405594406</v>
       </c>
       <c r="F195" t="n">
-        <v>39.671875</v>
+        <v>75.625</v>
       </c>
     </row>
     <row r="196">
@@ -4734,13 +4734,13 @@
         <v>25</v>
       </c>
       <c r="D196" t="n">
-        <v>0.6053946053946054</v>
+        <v>0.5504495504495505</v>
       </c>
       <c r="E196" t="n">
-        <v>0.3946053946053946</v>
+        <v>0.4495504495504495</v>
       </c>
       <c r="F196" t="n">
-        <v>39.46875</v>
+        <v>77.125</v>
       </c>
     </row>
     <row r="197">
@@ -4756,13 +4756,13 @@
         <v>25</v>
       </c>
       <c r="D197" t="n">
-        <v>0.6523476523476524</v>
+        <v>0.5604395604395604</v>
       </c>
       <c r="E197" t="n">
-        <v>0.3476523476523476</v>
+        <v>0.4395604395604396</v>
       </c>
       <c r="F197" t="n">
-        <v>39.75</v>
+        <v>78.265625</v>
       </c>
     </row>
     <row r="198">
@@ -4778,13 +4778,13 @@
         <v>25</v>
       </c>
       <c r="D198" t="n">
-        <v>0.6303696303696303</v>
+        <v>0.5704295704295704</v>
       </c>
       <c r="E198" t="n">
-        <v>0.3696303696303696</v>
+        <v>0.4295704295704296</v>
       </c>
       <c r="F198" t="n">
-        <v>38.84375</v>
+        <v>77.984375</v>
       </c>
     </row>
     <row r="199">
@@ -4800,13 +4800,13 @@
         <v>25</v>
       </c>
       <c r="D199" t="n">
-        <v>0.6343656343656343</v>
+        <v>0.5744255744255744</v>
       </c>
       <c r="E199" t="n">
-        <v>0.3656343656343656</v>
+        <v>0.4255744255744256</v>
       </c>
       <c r="F199" t="n">
-        <v>38.609375</v>
+        <v>75.296875</v>
       </c>
     </row>
     <row r="200">
@@ -4822,13 +4822,13 @@
         <v>25</v>
       </c>
       <c r="D200" t="n">
-        <v>0.6383616383616384</v>
+        <v>0.5624375624375625</v>
       </c>
       <c r="E200" t="n">
-        <v>0.3616383616383617</v>
+        <v>0.4375624375624376</v>
       </c>
       <c r="F200" t="n">
-        <v>38.734375</v>
+        <v>75.09375</v>
       </c>
     </row>
     <row r="201">
@@ -4844,13 +4844,13 @@
         <v>25</v>
       </c>
       <c r="D201" t="n">
-        <v>0.6303696303696303</v>
+        <v>0.5604395604395604</v>
       </c>
       <c r="E201" t="n">
-        <v>0.3696303696303696</v>
+        <v>0.4395604395604396</v>
       </c>
       <c r="F201" t="n">
-        <v>39.15625</v>
+        <v>76.4375</v>
       </c>
     </row>
     <row r="202">
@@ -4866,13 +4866,13 @@
         <v>25</v>
       </c>
       <c r="D202" t="n">
-        <v>0.6153846153846154</v>
+        <v>0.5624375624375625</v>
       </c>
       <c r="E202" t="n">
-        <v>0.3846153846153846</v>
+        <v>0.4375624375624376</v>
       </c>
       <c r="F202" t="n">
-        <v>42.5625</v>
+        <v>84.75</v>
       </c>
     </row>
     <row r="203">
@@ -4888,13 +4888,13 @@
         <v>25</v>
       </c>
       <c r="D203" t="n">
-        <v>0.6273726273726273</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="E203" t="n">
-        <v>0.3726273726273726</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="F203" t="n">
-        <v>44</v>
+        <v>84.90625</v>
       </c>
     </row>
     <row r="204">
@@ -4910,13 +4910,13 @@
         <v>25</v>
       </c>
       <c r="D204" t="n">
-        <v>0.6393606393606394</v>
+        <v>0.5374625374625375</v>
       </c>
       <c r="E204" t="n">
-        <v>0.3606393606393606</v>
+        <v>0.4625374625374625</v>
       </c>
       <c r="F204" t="n">
-        <v>44.171875</v>
+        <v>83.5</v>
       </c>
     </row>
     <row r="205">
@@ -4932,13 +4932,13 @@
         <v>25</v>
       </c>
       <c r="D205" t="n">
-        <v>0.6093906093906094</v>
+        <v>0.5524475524475524</v>
       </c>
       <c r="E205" t="n">
-        <v>0.3906093906093906</v>
+        <v>0.4475524475524476</v>
       </c>
       <c r="F205" t="n">
-        <v>44.25</v>
+        <v>84.65625</v>
       </c>
     </row>
     <row r="206">
@@ -4954,13 +4954,13 @@
         <v>25</v>
       </c>
       <c r="D206" t="n">
-        <v>0.6073926073926074</v>
+        <v>0.5554445554445554</v>
       </c>
       <c r="E206" t="n">
-        <v>0.3926073926073926</v>
+        <v>0.4445554445554445</v>
       </c>
       <c r="F206" t="n">
-        <v>43.609375</v>
+        <v>83.96875</v>
       </c>
     </row>
     <row r="207">
@@ -4976,13 +4976,13 @@
         <v>25</v>
       </c>
       <c r="D207" t="n">
-        <v>0.6543456543456544</v>
+        <v>0.5544455544455544</v>
       </c>
       <c r="E207" t="n">
-        <v>0.3456543456543457</v>
+        <v>0.4455544455544456</v>
       </c>
       <c r="F207" t="n">
-        <v>43.515625</v>
+        <v>84.75</v>
       </c>
     </row>
     <row r="208">
@@ -4998,13 +4998,13 @@
         <v>25</v>
       </c>
       <c r="D208" t="n">
-        <v>0.6063936063936064</v>
+        <v>0.5504495504495505</v>
       </c>
       <c r="E208" t="n">
-        <v>0.3936063936063936</v>
+        <v>0.4495504495504495</v>
       </c>
       <c r="F208" t="n">
-        <v>43.671875</v>
+        <v>86.265625</v>
       </c>
     </row>
     <row r="209">
@@ -5020,13 +5020,13 @@
         <v>25</v>
       </c>
       <c r="D209" t="n">
-        <v>0.6363636363636364</v>
+        <v>0.5174825174825175</v>
       </c>
       <c r="E209" t="n">
-        <v>0.3636363636363636</v>
+        <v>0.4825174825174825</v>
       </c>
       <c r="F209" t="n">
-        <v>42.75</v>
+        <v>85.40625</v>
       </c>
     </row>
     <row r="210">
@@ -5042,13 +5042,13 @@
         <v>25</v>
       </c>
       <c r="D210" t="n">
-        <v>0.5954045954045954</v>
+        <v>0.5344655344655345</v>
       </c>
       <c r="E210" t="n">
-        <v>0.4045954045954046</v>
+        <v>0.4655344655344655</v>
       </c>
       <c r="F210" t="n">
-        <v>44.53125</v>
+        <v>86.234375</v>
       </c>
     </row>
     <row r="211">
@@ -5064,13 +5064,13 @@
         <v>25</v>
       </c>
       <c r="D211" t="n">
-        <v>0.6333666333666333</v>
+        <v>0.5494505494505495</v>
       </c>
       <c r="E211" t="n">
-        <v>0.3666333666333667</v>
+        <v>0.4505494505494506</v>
       </c>
       <c r="F211" t="n">
-        <v>44.203125</v>
+        <v>85.796875</v>
       </c>
     </row>
     <row r="212">
@@ -5086,13 +5086,13 @@
         <v>25</v>
       </c>
       <c r="D212" t="n">
-        <v>0.6203796203796204</v>
+        <v>0.5574425574425574</v>
       </c>
       <c r="E212" t="n">
-        <v>0.3796203796203796</v>
+        <v>0.4425574425574426</v>
       </c>
       <c r="F212" t="n">
-        <v>43.765625</v>
+        <v>85.078125</v>
       </c>
     </row>
     <row r="213">
@@ -5108,13 +5108,13 @@
         <v>25</v>
       </c>
       <c r="D213" t="n">
-        <v>0.6003996003996004</v>
+        <v>0.5344655344655345</v>
       </c>
       <c r="E213" t="n">
-        <v>0.3996003996003996</v>
+        <v>0.4655344655344655</v>
       </c>
       <c r="F213" t="n">
-        <v>43.5625</v>
+        <v>83.953125</v>
       </c>
     </row>
     <row r="214">
@@ -5130,13 +5130,13 @@
         <v>25</v>
       </c>
       <c r="D214" t="n">
-        <v>0.6163836163836164</v>
+        <v>0.5514485514485514</v>
       </c>
       <c r="E214" t="n">
-        <v>0.3836163836163836</v>
+        <v>0.4485514485514486</v>
       </c>
       <c r="F214" t="n">
-        <v>43.640625</v>
+        <v>83.734375</v>
       </c>
     </row>
     <row r="215">
@@ -5152,13 +5152,13 @@
         <v>25</v>
       </c>
       <c r="D215" t="n">
-        <v>0.6223776223776224</v>
+        <v>0.5364635364635365</v>
       </c>
       <c r="E215" t="n">
-        <v>0.3776223776223776</v>
+        <v>0.4635364635364635</v>
       </c>
       <c r="F215" t="n">
-        <v>43.3125</v>
+        <v>84.40625</v>
       </c>
     </row>
     <row r="216">
@@ -5174,13 +5174,13 @@
         <v>25</v>
       </c>
       <c r="D216" t="n">
-        <v>0.6153846153846154</v>
+        <v>0.5274725274725275</v>
       </c>
       <c r="E216" t="n">
-        <v>0.3846153846153846</v>
+        <v>0.4725274725274725</v>
       </c>
       <c r="F216" t="n">
-        <v>43.984375</v>
+        <v>84.859375</v>
       </c>
     </row>
     <row r="217">
@@ -5196,13 +5196,13 @@
         <v>25</v>
       </c>
       <c r="D217" t="n">
-        <v>0.6223776223776224</v>
+        <v>0.5394605394605395</v>
       </c>
       <c r="E217" t="n">
-        <v>0.3776223776223776</v>
+        <v>0.4605394605394605</v>
       </c>
       <c r="F217" t="n">
-        <v>43.125</v>
+        <v>84.96875</v>
       </c>
     </row>
     <row r="218">
@@ -5218,13 +5218,13 @@
         <v>25</v>
       </c>
       <c r="D218" t="n">
-        <v>0.6303696303696303</v>
+        <v>0.5614385614385614</v>
       </c>
       <c r="E218" t="n">
-        <v>0.3696303696303696</v>
+        <v>0.4385614385614386</v>
       </c>
       <c r="F218" t="n">
-        <v>43.609375</v>
+        <v>84.59375</v>
       </c>
     </row>
     <row r="219">
@@ -5240,13 +5240,13 @@
         <v>25</v>
       </c>
       <c r="D219" t="n">
-        <v>0.6123876123876124</v>
+        <v>0.5394605394605395</v>
       </c>
       <c r="E219" t="n">
-        <v>0.3876123876123876</v>
+        <v>0.4605394605394605</v>
       </c>
       <c r="F219" t="n">
-        <v>43.609375</v>
+        <v>84.75</v>
       </c>
     </row>
     <row r="220">
@@ -5262,13 +5262,13 @@
         <v>25</v>
       </c>
       <c r="D220" t="n">
-        <v>0.6143856143856143</v>
+        <v>0.5634365634365635</v>
       </c>
       <c r="E220" t="n">
-        <v>0.3856143856143856</v>
+        <v>0.4365634365634365</v>
       </c>
       <c r="F220" t="n">
-        <v>43.796875</v>
+        <v>84.4375</v>
       </c>
     </row>
     <row r="221">
@@ -5284,13 +5284,13 @@
         <v>25</v>
       </c>
       <c r="D221" t="n">
-        <v>0.6433566433566433</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="E221" t="n">
-        <v>0.3566433566433567</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="F221" t="n">
-        <v>43.15625</v>
+        <v>84.015625</v>
       </c>
     </row>
     <row r="222">
@@ -5306,13 +5306,13 @@
         <v>25</v>
       </c>
       <c r="D222" t="n">
-        <v>0.6063936063936064</v>
+        <v>0.5844155844155844</v>
       </c>
       <c r="E222" t="n">
-        <v>0.3936063936063936</v>
+        <v>0.4155844155844156</v>
       </c>
       <c r="F222" t="n">
-        <v>43.546875</v>
+        <v>84.625</v>
       </c>
     </row>
     <row r="223">
@@ -5328,13 +5328,13 @@
         <v>25</v>
       </c>
       <c r="D223" t="n">
-        <v>0.6113886113886113</v>
+        <v>0.5444555444555444</v>
       </c>
       <c r="E223" t="n">
-        <v>0.3886113886113886</v>
+        <v>0.4555444555444556</v>
       </c>
       <c r="F223" t="n">
-        <v>44.03125</v>
+        <v>85.140625</v>
       </c>
     </row>
     <row r="224">
@@ -5350,13 +5350,13 @@
         <v>25</v>
       </c>
       <c r="D224" t="n">
-        <v>0.6363636363636364</v>
+        <v>0.6043956043956044</v>
       </c>
       <c r="E224" t="n">
-        <v>0.3636363636363636</v>
+        <v>0.3956043956043956</v>
       </c>
       <c r="F224" t="n">
-        <v>42.34375</v>
+        <v>84.21875</v>
       </c>
     </row>
     <row r="225">
@@ -5372,13 +5372,13 @@
         <v>25</v>
       </c>
       <c r="D225" t="n">
-        <v>0.6063936063936064</v>
+        <v>0.5604395604395604</v>
       </c>
       <c r="E225" t="n">
-        <v>0.3936063936063936</v>
+        <v>0.4395604395604396</v>
       </c>
       <c r="F225" t="n">
-        <v>40.84375</v>
+        <v>82.765625</v>
       </c>
     </row>
     <row r="226">
@@ -5394,13 +5394,13 @@
         <v>25</v>
       </c>
       <c r="D226" t="n">
-        <v>0.6193806193806194</v>
+        <v>0.5194805194805194</v>
       </c>
       <c r="E226" t="n">
-        <v>0.3806193806193806</v>
+        <v>0.4805194805194805</v>
       </c>
       <c r="F226" t="n">
-        <v>40.84375</v>
+        <v>82.90625</v>
       </c>
     </row>
     <row r="227">
@@ -5416,13 +5416,13 @@
         <v>25</v>
       </c>
       <c r="D227" t="n">
-        <v>0.6233766233766234</v>
+        <v>0.5694305694305695</v>
       </c>
       <c r="E227" t="n">
-        <v>0.3766233766233766</v>
+        <v>0.4305694305694306</v>
       </c>
       <c r="F227" t="n">
-        <v>44.28125</v>
+        <v>86.25</v>
       </c>
     </row>
     <row r="228">
@@ -5438,13 +5438,13 @@
         <v>25</v>
       </c>
       <c r="D228" t="n">
-        <v>0.6003996003996004</v>
+        <v>0.5374625374625375</v>
       </c>
       <c r="E228" t="n">
-        <v>0.3996003996003996</v>
+        <v>0.4625374625374625</v>
       </c>
       <c r="F228" t="n">
-        <v>44.0625</v>
+        <v>85.140625</v>
       </c>
     </row>
     <row r="229">
@@ -5460,13 +5460,13 @@
         <v>25</v>
       </c>
       <c r="D229" t="n">
-        <v>0.6213786213786214</v>
+        <v>0.5484515484515484</v>
       </c>
       <c r="E229" t="n">
-        <v>0.3786213786213786</v>
+        <v>0.4515484515484515</v>
       </c>
       <c r="F229" t="n">
-        <v>44.234375</v>
+        <v>86.234375</v>
       </c>
     </row>
     <row r="230">
@@ -5482,13 +5482,13 @@
         <v>25</v>
       </c>
       <c r="D230" t="n">
-        <v>0.6543456543456544</v>
+        <v>0.5574425574425574</v>
       </c>
       <c r="E230" t="n">
-        <v>0.3456543456543457</v>
+        <v>0.4425574425574426</v>
       </c>
       <c r="F230" t="n">
-        <v>43.125</v>
+        <v>84.984375</v>
       </c>
     </row>
     <row r="231">
@@ -5504,13 +5504,13 @@
         <v>25</v>
       </c>
       <c r="D231" t="n">
-        <v>0.6363636363636364</v>
+        <v>0.5674325674325674</v>
       </c>
       <c r="E231" t="n">
-        <v>0.3636363636363636</v>
+        <v>0.4325674325674326</v>
       </c>
       <c r="F231" t="n">
-        <v>43</v>
+        <v>86.21875</v>
       </c>
     </row>
     <row r="232">
@@ -5526,13 +5526,13 @@
         <v>25</v>
       </c>
       <c r="D232" t="n">
-        <v>0.6023976023976024</v>
+        <v>0.5504495504495505</v>
       </c>
       <c r="E232" t="n">
-        <v>0.3976023976023976</v>
+        <v>0.4495504495504495</v>
       </c>
       <c r="F232" t="n">
-        <v>43.484375</v>
+        <v>85.109375</v>
       </c>
     </row>
     <row r="233">
@@ -5548,13 +5548,13 @@
         <v>25</v>
       </c>
       <c r="D233" t="n">
-        <v>0.6363636363636364</v>
+        <v>0.5464535464535465</v>
       </c>
       <c r="E233" t="n">
-        <v>0.3636363636363636</v>
+        <v>0.4535464535464536</v>
       </c>
       <c r="F233" t="n">
-        <v>43.8125</v>
+        <v>84.65625</v>
       </c>
     </row>
     <row r="234">
@@ -5570,13 +5570,13 @@
         <v>25</v>
       </c>
       <c r="D234" t="n">
-        <v>0.6393606393606394</v>
+        <v>0.5424575424575424</v>
       </c>
       <c r="E234" t="n">
-        <v>0.3606393606393606</v>
+        <v>0.4575424575424575</v>
       </c>
       <c r="F234" t="n">
-        <v>44.3125</v>
+        <v>84.578125</v>
       </c>
     </row>
     <row r="235">
@@ -5592,13 +5592,13 @@
         <v>25</v>
       </c>
       <c r="D235" t="n">
-        <v>0.6503496503496503</v>
+        <v>0.5534465534465535</v>
       </c>
       <c r="E235" t="n">
-        <v>0.3496503496503496</v>
+        <v>0.4465534465534465</v>
       </c>
       <c r="F235" t="n">
-        <v>43.984375</v>
+        <v>86.078125</v>
       </c>
     </row>
     <row r="236">
@@ -5614,13 +5614,13 @@
         <v>25</v>
       </c>
       <c r="D236" t="n">
-        <v>0.6163836163836164</v>
+        <v>0.5514485514485514</v>
       </c>
       <c r="E236" t="n">
-        <v>0.3836163836163836</v>
+        <v>0.4485514485514486</v>
       </c>
       <c r="F236" t="n">
-        <v>43.40625</v>
+        <v>87.625</v>
       </c>
     </row>
     <row r="237">
@@ -5636,13 +5636,13 @@
         <v>25</v>
       </c>
       <c r="D237" t="n">
-        <v>0.5984015984015985</v>
+        <v>0.5364635364635365</v>
       </c>
       <c r="E237" t="n">
-        <v>0.4015984015984016</v>
+        <v>0.4635364635364635</v>
       </c>
       <c r="F237" t="n">
-        <v>44.109375</v>
+        <v>85.0625</v>
       </c>
     </row>
     <row r="238">
@@ -5658,13 +5658,13 @@
         <v>25</v>
       </c>
       <c r="D238" t="n">
-        <v>0.5944055944055944</v>
+        <v>0.5494505494505495</v>
       </c>
       <c r="E238" t="n">
-        <v>0.4055944055944056</v>
+        <v>0.4505494505494506</v>
       </c>
       <c r="F238" t="n">
-        <v>44.1875</v>
+        <v>85.828125</v>
       </c>
     </row>
     <row r="239">
@@ -5680,13 +5680,13 @@
         <v>25</v>
       </c>
       <c r="D239" t="n">
-        <v>0.6233766233766234</v>
+        <v>0.5774225774225774</v>
       </c>
       <c r="E239" t="n">
-        <v>0.3766233766233766</v>
+        <v>0.4225774225774226</v>
       </c>
       <c r="F239" t="n">
-        <v>43.609375</v>
+        <v>85.796875</v>
       </c>
     </row>
     <row r="240">
@@ -5702,13 +5702,13 @@
         <v>25</v>
       </c>
       <c r="D240" t="n">
-        <v>0.6203796203796204</v>
+        <v>0.5554445554445554</v>
       </c>
       <c r="E240" t="n">
-        <v>0.3796203796203796</v>
+        <v>0.4445554445554445</v>
       </c>
       <c r="F240" t="n">
-        <v>44.03125</v>
+        <v>86.046875</v>
       </c>
     </row>
     <row r="241">
@@ -5724,13 +5724,13 @@
         <v>25</v>
       </c>
       <c r="D241" t="n">
-        <v>0.6293706293706294</v>
+        <v>0.5214785214785215</v>
       </c>
       <c r="E241" t="n">
-        <v>0.3706293706293706</v>
+        <v>0.4785214785214785</v>
       </c>
       <c r="F241" t="n">
-        <v>43.515625</v>
+        <v>84.9375</v>
       </c>
     </row>
     <row r="242">
@@ -5746,13 +5746,13 @@
         <v>25</v>
       </c>
       <c r="D242" t="n">
-        <v>0.6433566433566433</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="E242" t="n">
-        <v>0.3566433566433567</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="F242" t="n">
-        <v>44.546875</v>
+        <v>84.203125</v>
       </c>
     </row>
     <row r="243">
@@ -5768,13 +5768,13 @@
         <v>25</v>
       </c>
       <c r="D243" t="n">
-        <v>0.6383616383616384</v>
+        <v>0.5554445554445554</v>
       </c>
       <c r="E243" t="n">
-        <v>0.3616383616383617</v>
+        <v>0.4445554445554445</v>
       </c>
       <c r="F243" t="n">
-        <v>44.46875</v>
+        <v>84.140625</v>
       </c>
     </row>
     <row r="244">
@@ -5790,13 +5790,13 @@
         <v>25</v>
       </c>
       <c r="D244" t="n">
-        <v>0.6153846153846154</v>
+        <v>0.5494505494505495</v>
       </c>
       <c r="E244" t="n">
-        <v>0.3846153846153846</v>
+        <v>0.4505494505494506</v>
       </c>
       <c r="F244" t="n">
-        <v>43.75</v>
+        <v>85.84375</v>
       </c>
     </row>
     <row r="245">
@@ -5812,13 +5812,13 @@
         <v>25</v>
       </c>
       <c r="D245" t="n">
-        <v>0.5914085914085914</v>
+        <v>0.5754245754245755</v>
       </c>
       <c r="E245" t="n">
-        <v>0.4085914085914086</v>
+        <v>0.4245754245754246</v>
       </c>
       <c r="F245" t="n">
-        <v>43.453125</v>
+        <v>86.296875</v>
       </c>
     </row>
     <row r="246">
@@ -5834,13 +5834,13 @@
         <v>25</v>
       </c>
       <c r="D246" t="n">
-        <v>0.6193806193806194</v>
+        <v>0.5564435564435565</v>
       </c>
       <c r="E246" t="n">
-        <v>0.3806193806193806</v>
+        <v>0.4435564435564436</v>
       </c>
       <c r="F246" t="n">
-        <v>44.953125</v>
+        <v>85.390625</v>
       </c>
     </row>
     <row r="247">
@@ -5856,13 +5856,13 @@
         <v>25</v>
       </c>
       <c r="D247" t="n">
-        <v>0.6343656343656343</v>
+        <v>0.5734265734265734</v>
       </c>
       <c r="E247" t="n">
-        <v>0.3656343656343656</v>
+        <v>0.4265734265734266</v>
       </c>
       <c r="F247" t="n">
-        <v>43.8125</v>
+        <v>86.90625</v>
       </c>
     </row>
     <row r="248">
@@ -5878,13 +5878,13 @@
         <v>25</v>
       </c>
       <c r="D248" t="n">
-        <v>0.6253746253746254</v>
+        <v>0.5534465534465535</v>
       </c>
       <c r="E248" t="n">
-        <v>0.3746253746253747</v>
+        <v>0.4465534465534465</v>
       </c>
       <c r="F248" t="n">
-        <v>44.078125</v>
+        <v>85.609375</v>
       </c>
     </row>
     <row r="249">
@@ -5900,13 +5900,13 @@
         <v>25</v>
       </c>
       <c r="D249" t="n">
-        <v>0.6373626373626373</v>
+        <v>0.5204795204795205</v>
       </c>
       <c r="E249" t="n">
-        <v>0.3626373626373626</v>
+        <v>0.4795204795204795</v>
       </c>
       <c r="F249" t="n">
-        <v>42.71875</v>
+        <v>86.0625</v>
       </c>
     </row>
     <row r="250">
@@ -5922,13 +5922,13 @@
         <v>25</v>
       </c>
       <c r="D250" t="n">
-        <v>0.6273726273726273</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="E250" t="n">
-        <v>0.3726273726273726</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="F250" t="n">
-        <v>43</v>
+        <v>84.5625</v>
       </c>
     </row>
     <row r="251">
@@ -5944,13 +5944,13 @@
         <v>25</v>
       </c>
       <c r="D251" t="n">
-        <v>0.6243756243756243</v>
+        <v>0.5934065934065934</v>
       </c>
       <c r="E251" t="n">
-        <v>0.3756243756243756</v>
+        <v>0.4065934065934066</v>
       </c>
       <c r="F251" t="n">
-        <v>42.59375</v>
+        <v>83.375</v>
       </c>
     </row>
   </sheetData>
